--- a/IT Tipo (002).xlsx
+++ b/IT Tipo (002).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Operaciones\PycharmProjects\PythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian Veliz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE956A2B-8F39-4365-B864-0EDB64217823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F198D55-0CF7-4B55-955B-7247A64057F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3643E92C-1364-4256-AF61-7814676A17A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{3643E92C-1364-4256-AF61-7814676A17A1}"/>
   </bookViews>
   <sheets>
     <sheet name="IT" sheetId="1" r:id="rId1"/>
@@ -7734,7 +7734,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -8586,7 +8586,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8791,19 +8791,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8843,7 +8843,7 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9001,29 +9001,49 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9037,54 +9057,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -9096,6 +9068,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9133,43 +9114,62 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9868,7 +9868,7 @@
   </sheetPr>
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScale="72" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="O1" zoomScale="72" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
@@ -9908,21 +9908,21 @@
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="M2" s="27"/>
-      <c r="O2" s="154" t="s">
+      <c r="O2" s="143" t="s">
         <v>1245</v>
       </c>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
       <c r="S2" s="37"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="M3" s="27"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
       <c r="S3" s="7" t="s">
         <v>1074</v>
       </c>
@@ -9931,10 +9931,10 @@
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="M4" s="27"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
       <c r="S4" s="130"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9985,8 +9985,8 @@
       <c r="O9" s="20" t="s">
         <v>1084</v>
       </c>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="132"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="138"/>
       <c r="R9" s="23" t="s">
         <v>1087</v>
       </c>
@@ -9998,8 +9998,8 @@
       <c r="O10" s="22" t="s">
         <v>1085</v>
       </c>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="171"/>
+      <c r="P10" s="180"/>
+      <c r="Q10" s="181"/>
       <c r="R10" s="24" t="s">
         <v>2531</v>
       </c>
@@ -10011,8 +10011,8 @@
       <c r="O11" s="22" t="s">
         <v>1086</v>
       </c>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="132"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="138"/>
       <c r="R11" s="65" t="s">
         <v>2532</v>
       </c>
@@ -10036,8 +10036,8 @@
       <c r="O12" s="126" t="s">
         <v>2533</v>
       </c>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="173"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="140"/>
       <c r="R12" s="119" t="s">
         <v>2534</v>
       </c>
@@ -10049,8 +10049,8 @@
       <c r="O13" s="20" t="s">
         <v>2535</v>
       </c>
-      <c r="P13" s="174"/>
-      <c r="Q13" s="175"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="142"/>
       <c r="R13" s="21" t="s">
         <v>2538</v>
       </c>
@@ -10062,8 +10062,8 @@
       <c r="O14" s="20" t="s">
         <v>2536</v>
       </c>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="175"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="142"/>
       <c r="R14" s="21" t="s">
         <v>2539</v>
       </c>
@@ -10072,11 +10072,11 @@
     <row r="15" spans="1:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="M15" s="27"/>
-      <c r="O15" s="176" t="s">
+      <c r="O15" s="131" t="s">
         <v>2537</v>
       </c>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="175"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="142"/>
       <c r="R15" s="101"/>
       <c r="S15" s="37"/>
     </row>
@@ -10097,13 +10097,13 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
-      <c r="O16" s="165" t="s">
+      <c r="O16" s="160" t="s">
         <v>1884</v>
       </c>
-      <c r="P16" s="166"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="166"/>
-      <c r="S16" s="167"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="161"/>
+      <c r="R16" s="161"/>
+      <c r="S16" s="162"/>
     </row>
     <row r="17" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
@@ -10149,14 +10149,14 @@
       <c r="O17" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="168" t="s">
+      <c r="P17" s="163" t="s">
         <v>1078</v>
       </c>
-      <c r="Q17" s="169"/>
+      <c r="Q17" s="164"/>
       <c r="R17" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="S17" s="177" t="s">
+      <c r="S17" s="132" t="s">
         <v>11</v>
       </c>
       <c r="U17" s="4" t="s">
@@ -10218,9 +10218,9 @@
         <v>0</v>
       </c>
       <c r="O18" s="92"/>
-      <c r="P18" s="178"/>
+      <c r="P18" s="133"/>
       <c r="Q18" s="105"/>
-      <c r="R18" s="179"/>
+      <c r="R18" s="134"/>
       <c r="S18" s="93"/>
       <c r="U18" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
@@ -10282,9 +10282,9 @@
         <v>0</v>
       </c>
       <c r="O19" s="94"/>
-      <c r="P19" s="178"/>
+      <c r="P19" s="133"/>
       <c r="Q19" s="106"/>
-      <c r="R19" s="179"/>
+      <c r="R19" s="134"/>
       <c r="S19" s="93"/>
       <c r="U19" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
@@ -10346,9 +10346,9 @@
         <v>0</v>
       </c>
       <c r="O20" s="94"/>
-      <c r="P20" s="178"/>
+      <c r="P20" s="133"/>
       <c r="Q20" s="106"/>
-      <c r="R20" s="179"/>
+      <c r="R20" s="134"/>
       <c r="S20" s="93"/>
       <c r="U20" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
@@ -10410,9 +10410,9 @@
         <v>0</v>
       </c>
       <c r="O21" s="94"/>
-      <c r="P21" s="178"/>
+      <c r="P21" s="133"/>
       <c r="Q21" s="106"/>
-      <c r="R21" s="179"/>
+      <c r="R21" s="134"/>
       <c r="S21" s="93"/>
       <c r="U21" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
@@ -10474,9 +10474,9 @@
         <v>0</v>
       </c>
       <c r="O22" s="94"/>
-      <c r="P22" s="178"/>
+      <c r="P22" s="133"/>
       <c r="Q22" s="106"/>
-      <c r="R22" s="179"/>
+      <c r="R22" s="134"/>
       <c r="S22" s="93"/>
       <c r="U22" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
@@ -10538,9 +10538,9 @@
         <v>0</v>
       </c>
       <c r="O23" s="94"/>
-      <c r="P23" s="178"/>
+      <c r="P23" s="133"/>
       <c r="Q23" s="106"/>
-      <c r="R23" s="179"/>
+      <c r="R23" s="134"/>
       <c r="S23" s="93"/>
       <c r="U23" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
@@ -10601,10 +10601,10 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O24" s="180"/>
-      <c r="P24" s="178"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="133"/>
       <c r="Q24" s="106"/>
-      <c r="R24" s="179"/>
+      <c r="R24" s="134"/>
       <c r="S24" s="93"/>
       <c r="U24" s="6" t="e">
         <f>IF(#REF!="No",1,0)</f>
@@ -10666,9 +10666,9 @@
         <v>0</v>
       </c>
       <c r="O25" s="92"/>
-      <c r="P25" s="178"/>
-      <c r="Q25" s="181"/>
-      <c r="R25" s="179"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="136"/>
+      <c r="R25" s="134"/>
       <c r="S25" s="93"/>
       <c r="U25" s="6">
         <f t="shared" ref="U25:U34" si="12">IF(S25="No",1,0)</f>
@@ -10730,9 +10730,9 @@
         <v>0</v>
       </c>
       <c r="O26" s="94"/>
-      <c r="P26" s="178"/>
+      <c r="P26" s="133"/>
       <c r="Q26" s="106"/>
-      <c r="R26" s="179"/>
+      <c r="R26" s="134"/>
       <c r="S26" s="93"/>
       <c r="U26" s="6">
         <f t="shared" si="12"/>
@@ -10794,9 +10794,9 @@
         <v>0</v>
       </c>
       <c r="O27" s="94"/>
-      <c r="P27" s="178"/>
+      <c r="P27" s="133"/>
       <c r="Q27" s="106"/>
-      <c r="R27" s="179"/>
+      <c r="R27" s="134"/>
       <c r="S27" s="93"/>
       <c r="U27" s="6">
         <f t="shared" si="12"/>
@@ -10858,9 +10858,9 @@
         <v>0</v>
       </c>
       <c r="O28" s="94"/>
-      <c r="P28" s="178"/>
+      <c r="P28" s="133"/>
       <c r="Q28" s="106"/>
-      <c r="R28" s="179"/>
+      <c r="R28" s="134"/>
       <c r="S28" s="93"/>
       <c r="U28" s="6">
         <f t="shared" si="12"/>
@@ -10922,9 +10922,9 @@
         <v>0</v>
       </c>
       <c r="O29" s="94"/>
-      <c r="P29" s="178"/>
+      <c r="P29" s="133"/>
       <c r="Q29" s="106"/>
-      <c r="R29" s="179"/>
+      <c r="R29" s="134"/>
       <c r="S29" s="93"/>
       <c r="U29" s="6">
         <f t="shared" si="12"/>
@@ -10986,9 +10986,9 @@
         <v>0</v>
       </c>
       <c r="O30" s="94"/>
-      <c r="P30" s="178"/>
+      <c r="P30" s="133"/>
       <c r="Q30" s="106"/>
-      <c r="R30" s="179"/>
+      <c r="R30" s="134"/>
       <c r="S30" s="93"/>
       <c r="U30" s="6">
         <f t="shared" si="12"/>
@@ -11050,9 +11050,9 @@
         <v>0</v>
       </c>
       <c r="O31" s="94"/>
-      <c r="P31" s="178"/>
+      <c r="P31" s="133"/>
       <c r="Q31" s="106"/>
-      <c r="R31" s="179"/>
+      <c r="R31" s="134"/>
       <c r="S31" s="93"/>
       <c r="U31" s="6">
         <f t="shared" si="12"/>
@@ -11114,9 +11114,9 @@
         <v>0</v>
       </c>
       <c r="O32" s="94"/>
-      <c r="P32" s="178"/>
+      <c r="P32" s="133"/>
       <c r="Q32" s="106"/>
-      <c r="R32" s="179"/>
+      <c r="R32" s="134"/>
       <c r="S32" s="93"/>
       <c r="U32" s="6">
         <f t="shared" si="12"/>
@@ -11178,9 +11178,9 @@
         <v>0</v>
       </c>
       <c r="O33" s="94"/>
-      <c r="P33" s="178"/>
+      <c r="P33" s="133"/>
       <c r="Q33" s="106"/>
-      <c r="R33" s="179"/>
+      <c r="R33" s="134"/>
       <c r="S33" s="93"/>
       <c r="U33" s="6">
         <f t="shared" si="12"/>
@@ -11242,9 +11242,9 @@
         <v>0</v>
       </c>
       <c r="O34" s="94"/>
-      <c r="P34" s="178"/>
+      <c r="P34" s="133"/>
       <c r="Q34" s="106"/>
-      <c r="R34" s="179"/>
+      <c r="R34" s="134"/>
       <c r="S34" s="93"/>
       <c r="U34" s="6">
         <f t="shared" si="12"/>
@@ -11266,13 +11266,13 @@
       <c r="L35" s="87"/>
       <c r="M35" s="86"/>
       <c r="N35" s="83"/>
-      <c r="O35" s="162" t="s">
+      <c r="O35" s="157" t="s">
         <v>2297</v>
       </c>
-      <c r="P35" s="163"/>
-      <c r="Q35" s="163"/>
-      <c r="R35" s="163"/>
-      <c r="S35" s="164"/>
+      <c r="P35" s="158"/>
+      <c r="Q35" s="158"/>
+      <c r="R35" s="158"/>
+      <c r="S35" s="159"/>
       <c r="U35" s="27"/>
     </row>
     <row r="36" spans="1:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11290,15 +11290,15 @@
       <c r="L36" s="87"/>
       <c r="M36" s="86"/>
       <c r="N36" s="83"/>
-      <c r="O36" s="153" t="s">
+      <c r="O36" s="179" t="s">
         <v>2540</v>
       </c>
-      <c r="P36" s="151"/>
-      <c r="Q36" s="151" t="s">
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177" t="s">
         <v>2541</v>
       </c>
-      <c r="R36" s="151"/>
-      <c r="S36" s="152"/>
+      <c r="R36" s="177"/>
+      <c r="S36" s="178"/>
       <c r="T36" s="27"/>
     </row>
     <row r="37" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11558,22 +11558,22 @@
       <c r="L48" s="28"/>
       <c r="M48" s="28"/>
       <c r="N48" s="28"/>
-      <c r="O48" s="142" t="s">
+      <c r="O48" s="151" t="s">
         <v>1083</v>
       </c>
-      <c r="P48" s="143"/>
-      <c r="Q48" s="143"/>
-      <c r="R48" s="143"/>
-      <c r="S48" s="144"/>
+      <c r="P48" s="152"/>
+      <c r="Q48" s="152"/>
+      <c r="R48" s="152"/>
+      <c r="S48" s="153"/>
     </row>
     <row r="49" spans="1:19" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="M49" s="27"/>
-      <c r="O49" s="159"/>
-      <c r="P49" s="160"/>
-      <c r="Q49" s="160"/>
-      <c r="R49" s="160"/>
-      <c r="S49" s="161"/>
+      <c r="O49" s="154"/>
+      <c r="P49" s="155"/>
+      <c r="Q49" s="155"/>
+      <c r="R49" s="155"/>
+      <c r="S49" s="156"/>
     </row>
     <row r="50" spans="1:19" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10"/>
@@ -11590,13 +11590,13 @@
       <c r="L50" s="28"/>
       <c r="M50" s="28"/>
       <c r="N50" s="28"/>
-      <c r="O50" s="142" t="s">
+      <c r="O50" s="151" t="s">
         <v>2542</v>
       </c>
-      <c r="P50" s="143"/>
-      <c r="Q50" s="143"/>
-      <c r="R50" s="143"/>
-      <c r="S50" s="144"/>
+      <c r="P50" s="152"/>
+      <c r="Q50" s="152"/>
+      <c r="R50" s="152"/>
+      <c r="S50" s="153"/>
     </row>
     <row r="51" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
@@ -11604,8 +11604,8 @@
       <c r="O51" s="20" t="s">
         <v>1093</v>
       </c>
-      <c r="P51" s="148"/>
-      <c r="Q51" s="149"/>
+      <c r="P51" s="174"/>
+      <c r="Q51" s="175"/>
       <c r="R51" s="21" t="s">
         <v>2528</v>
       </c>
@@ -11617,8 +11617,8 @@
       <c r="O52" s="20" t="s">
         <v>1094</v>
       </c>
-      <c r="P52" s="148"/>
-      <c r="Q52" s="149"/>
+      <c r="P52" s="174"/>
+      <c r="Q52" s="175"/>
       <c r="R52" s="21" t="s">
         <v>2529</v>
       </c>
@@ -11669,8 +11669,8 @@
       <c r="O56" s="20" t="s">
         <v>2293</v>
       </c>
-      <c r="P56" s="148"/>
-      <c r="Q56" s="149"/>
+      <c r="P56" s="174"/>
+      <c r="Q56" s="175"/>
       <c r="R56" s="21" t="s">
         <v>2296</v>
       </c>
@@ -11691,21 +11691,21 @@
       <c r="L57" s="28"/>
       <c r="M57" s="28"/>
       <c r="N57" s="28"/>
-      <c r="O57" s="145" t="s">
+      <c r="O57" s="171" t="s">
         <v>1071</v>
       </c>
-      <c r="P57" s="146"/>
-      <c r="Q57" s="146"/>
-      <c r="R57" s="146"/>
-      <c r="S57" s="147"/>
+      <c r="P57" s="172"/>
+      <c r="Q57" s="172"/>
+      <c r="R57" s="172"/>
+      <c r="S57" s="173"/>
     </row>
     <row r="58" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="O58" s="20" t="s">
         <v>1088</v>
       </c>
-      <c r="P58" s="139"/>
-      <c r="Q58" s="150"/>
+      <c r="P58" s="145"/>
+      <c r="Q58" s="176"/>
       <c r="R58" s="21" t="s">
         <v>2290</v>
       </c>
@@ -11717,10 +11717,10 @@
       <c r="O59" s="20" t="s">
         <v>1089</v>
       </c>
-      <c r="P59" s="156"/>
-      <c r="Q59" s="157"/>
-      <c r="R59" s="157"/>
-      <c r="S59" s="158"/>
+      <c r="P59" s="148"/>
+      <c r="Q59" s="149"/>
+      <c r="R59" s="149"/>
+      <c r="S59" s="150"/>
     </row>
     <row r="60" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
@@ -11728,10 +11728,10 @@
       <c r="O60" s="20" t="s">
         <v>1090</v>
       </c>
-      <c r="P60" s="139"/>
-      <c r="Q60" s="140"/>
-      <c r="R60" s="140"/>
-      <c r="S60" s="141"/>
+      <c r="P60" s="145"/>
+      <c r="Q60" s="146"/>
+      <c r="R60" s="146"/>
+      <c r="S60" s="147"/>
     </row>
     <row r="61" spans="1:19" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
@@ -11750,10 +11750,10 @@
       <c r="O62" s="20" t="s">
         <v>1092</v>
       </c>
-      <c r="P62" s="139"/>
-      <c r="Q62" s="140"/>
-      <c r="R62" s="140"/>
-      <c r="S62" s="141"/>
+      <c r="P62" s="145"/>
+      <c r="Q62" s="146"/>
+      <c r="R62" s="146"/>
+      <c r="S62" s="147"/>
     </row>
     <row r="63" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -11762,52 +11762,38 @@
     </row>
     <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
-      <c r="O64" s="133" t="s">
+      <c r="O64" s="165" t="s">
         <v>1081</v>
       </c>
-      <c r="P64" s="134"/>
-      <c r="Q64" s="134"/>
-      <c r="R64" s="134"/>
-      <c r="S64" s="135"/>
+      <c r="P64" s="166"/>
+      <c r="Q64" s="166"/>
+      <c r="R64" s="166"/>
+      <c r="S64" s="167"/>
     </row>
     <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
-      <c r="O65" s="133" t="s">
+      <c r="O65" s="165" t="s">
         <v>1080</v>
       </c>
-      <c r="P65" s="134"/>
-      <c r="Q65" s="134"/>
-      <c r="R65" s="134"/>
-      <c r="S65" s="135"/>
+      <c r="P65" s="166"/>
+      <c r="Q65" s="166"/>
+      <c r="R65" s="166"/>
+      <c r="S65" s="167"/>
     </row>
     <row r="66" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
-      <c r="O66" s="136" t="s">
+      <c r="O66" s="168" t="s">
         <v>1082</v>
       </c>
-      <c r="P66" s="137"/>
-      <c r="Q66" s="137"/>
-      <c r="R66" s="137"/>
-      <c r="S66" s="138"/>
+      <c r="P66" s="169"/>
+      <c r="Q66" s="169"/>
+      <c r="R66" s="169"/>
+      <c r="S66" s="170"/>
     </row>
     <row r="67" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="27">
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="O2:R4"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="O48:S48"/>
-    <mergeCell ref="O49:S49"/>
-    <mergeCell ref="O35:S35"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="O64:S64"/>
     <mergeCell ref="O65:S65"/>
     <mergeCell ref="O66:S66"/>
@@ -11818,9 +11804,23 @@
     <mergeCell ref="P52:Q52"/>
     <mergeCell ref="P56:Q56"/>
     <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="O2:R4"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="O48:S48"/>
+    <mergeCell ref="O49:S49"/>
+    <mergeCell ref="O35:S35"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P9:Q9"/>
     <mergeCell ref="Q36:S36"/>
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33635,7 +33635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A51295-D0E5-4ED6-A98F-14ECEFB993C7}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/IT Tipo (002).xlsx
+++ b/IT Tipo (002).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="31" documentId="8_{0F198D55-0CF7-4B55-955B-7247A64057F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{617998DA-BFB1-4737-9B35-911458F88514}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{3643E92C-1364-4256-AF61-7814676A17A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3643E92C-1364-4256-AF61-7814676A17A1}"/>
   </bookViews>
   <sheets>
     <sheet name="IT" sheetId="1" r:id="rId1"/>
@@ -9140,23 +9140,31 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9170,42 +9178,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -9217,6 +9189,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9284,25 +9265,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10001,7 +10001,7 @@
   </sheetPr>
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O1" zoomScale="72" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScale="72" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -10041,21 +10041,21 @@
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="M2" s="27"/>
-      <c r="O2" s="155" t="s">
+      <c r="O2" s="143" t="s">
         <v>1245</v>
       </c>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
       <c r="S2" s="37"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="M3" s="27"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
       <c r="S3" s="7" t="s">
         <v>1074</v>
       </c>
@@ -10064,10 +10064,10 @@
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="M4" s="27"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
       <c r="S4" s="130"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10118,8 +10118,8 @@
       <c r="O9" s="20" t="s">
         <v>1084</v>
       </c>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="172"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="166"/>
       <c r="R9" s="23" t="s">
         <v>1087</v>
       </c>
@@ -10131,8 +10131,8 @@
       <c r="O10" s="22" t="s">
         <v>1085</v>
       </c>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="177"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="171"/>
       <c r="R10" s="24" t="s">
         <v>2525</v>
       </c>
@@ -10144,8 +10144,8 @@
       <c r="O11" s="22" t="s">
         <v>1086</v>
       </c>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="172"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="166"/>
       <c r="R11" s="65" t="s">
         <v>2526</v>
       </c>
@@ -10169,8 +10169,8 @@
       <c r="O12" s="126" t="s">
         <v>2527</v>
       </c>
-      <c r="P12" s="178"/>
-      <c r="Q12" s="179"/>
+      <c r="P12" s="172"/>
+      <c r="Q12" s="173"/>
       <c r="R12" s="119" t="s">
         <v>2528</v>
       </c>
@@ -10182,8 +10182,8 @@
       <c r="O13" s="20" t="s">
         <v>2529</v>
       </c>
-      <c r="P13" s="180"/>
-      <c r="Q13" s="181"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="142"/>
       <c r="R13" s="21" t="s">
         <v>2532</v>
       </c>
@@ -10195,8 +10195,8 @@
       <c r="O14" s="20" t="s">
         <v>2530</v>
       </c>
-      <c r="P14" s="180"/>
-      <c r="Q14" s="181"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="142"/>
       <c r="R14" s="21" t="s">
         <v>2533</v>
       </c>
@@ -10208,8 +10208,8 @@
       <c r="O15" s="131" t="s">
         <v>2531</v>
       </c>
-      <c r="P15" s="180"/>
-      <c r="Q15" s="181"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="142"/>
       <c r="R15" s="101"/>
       <c r="S15" s="37"/>
     </row>
@@ -10230,13 +10230,13 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
-      <c r="O16" s="166" t="s">
+      <c r="O16" s="160" t="s">
         <v>1882</v>
       </c>
-      <c r="P16" s="167"/>
-      <c r="Q16" s="167"/>
-      <c r="R16" s="167"/>
-      <c r="S16" s="168"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="161"/>
+      <c r="R16" s="161"/>
+      <c r="S16" s="162"/>
     </row>
     <row r="17" spans="1:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
@@ -10282,10 +10282,10 @@
       <c r="O17" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="169" t="s">
+      <c r="P17" s="163" t="s">
         <v>1078</v>
       </c>
-      <c r="Q17" s="170"/>
+      <c r="Q17" s="164"/>
       <c r="R17" s="78" t="s">
         <v>8</v>
       </c>
@@ -11399,13 +11399,13 @@
       <c r="L35" s="87"/>
       <c r="M35" s="86"/>
       <c r="N35" s="83"/>
-      <c r="O35" s="163" t="s">
+      <c r="O35" s="157" t="s">
         <v>2294</v>
       </c>
-      <c r="P35" s="164"/>
-      <c r="Q35" s="164"/>
-      <c r="R35" s="164"/>
-      <c r="S35" s="165"/>
+      <c r="P35" s="158"/>
+      <c r="Q35" s="158"/>
+      <c r="R35" s="158"/>
+      <c r="S35" s="159"/>
       <c r="U35" s="27"/>
     </row>
     <row r="36" spans="1:21" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11423,15 +11423,15 @@
       <c r="L36" s="87"/>
       <c r="M36" s="86"/>
       <c r="N36" s="83"/>
-      <c r="O36" s="175" t="s">
+      <c r="O36" s="169" t="s">
         <v>2534</v>
       </c>
-      <c r="P36" s="173"/>
-      <c r="Q36" s="173" t="s">
+      <c r="P36" s="167"/>
+      <c r="Q36" s="167" t="s">
         <v>2535</v>
       </c>
-      <c r="R36" s="173"/>
-      <c r="S36" s="174"/>
+      <c r="R36" s="167"/>
+      <c r="S36" s="168"/>
       <c r="T36" s="27"/>
     </row>
     <row r="37" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11691,22 +11691,22 @@
       <c r="L48" s="28"/>
       <c r="M48" s="28"/>
       <c r="N48" s="28"/>
-      <c r="O48" s="146" t="s">
+      <c r="O48" s="151" t="s">
         <v>1083</v>
       </c>
-      <c r="P48" s="147"/>
-      <c r="Q48" s="147"/>
-      <c r="R48" s="147"/>
-      <c r="S48" s="148"/>
+      <c r="P48" s="152"/>
+      <c r="Q48" s="152"/>
+      <c r="R48" s="152"/>
+      <c r="S48" s="153"/>
     </row>
     <row r="49" spans="1:19" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="M49" s="27"/>
-      <c r="O49" s="160"/>
-      <c r="P49" s="161"/>
-      <c r="Q49" s="161"/>
-      <c r="R49" s="161"/>
-      <c r="S49" s="162"/>
+      <c r="O49" s="154"/>
+      <c r="P49" s="155"/>
+      <c r="Q49" s="155"/>
+      <c r="R49" s="155"/>
+      <c r="S49" s="156"/>
     </row>
     <row r="50" spans="1:19" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10"/>
@@ -11723,13 +11723,13 @@
       <c r="L50" s="28"/>
       <c r="M50" s="28"/>
       <c r="N50" s="28"/>
-      <c r="O50" s="146" t="s">
+      <c r="O50" s="151" t="s">
         <v>2536</v>
       </c>
-      <c r="P50" s="147"/>
-      <c r="Q50" s="147"/>
-      <c r="R50" s="147"/>
-      <c r="S50" s="148"/>
+      <c r="P50" s="152"/>
+      <c r="Q50" s="152"/>
+      <c r="R50" s="152"/>
+      <c r="S50" s="153"/>
     </row>
     <row r="51" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
@@ -11737,8 +11737,8 @@
       <c r="O51" s="20" t="s">
         <v>1093</v>
       </c>
-      <c r="P51" s="152"/>
-      <c r="Q51" s="153"/>
+      <c r="P51" s="183"/>
+      <c r="Q51" s="184"/>
       <c r="R51" s="21" t="s">
         <v>2522</v>
       </c>
@@ -11750,8 +11750,8 @@
       <c r="O52" s="20" t="s">
         <v>1094</v>
       </c>
-      <c r="P52" s="152"/>
-      <c r="Q52" s="153"/>
+      <c r="P52" s="183"/>
+      <c r="Q52" s="184"/>
       <c r="R52" s="21" t="s">
         <v>2523</v>
       </c>
@@ -11802,8 +11802,8 @@
       <c r="O56" s="20" t="s">
         <v>2290</v>
       </c>
-      <c r="P56" s="152"/>
-      <c r="Q56" s="153"/>
+      <c r="P56" s="183"/>
+      <c r="Q56" s="184"/>
       <c r="R56" s="21" t="s">
         <v>2293</v>
       </c>
@@ -11824,21 +11824,21 @@
       <c r="L57" s="28"/>
       <c r="M57" s="28"/>
       <c r="N57" s="28"/>
-      <c r="O57" s="149" t="s">
+      <c r="O57" s="180" t="s">
         <v>1071</v>
       </c>
-      <c r="P57" s="150"/>
-      <c r="Q57" s="150"/>
-      <c r="R57" s="150"/>
-      <c r="S57" s="151"/>
+      <c r="P57" s="181"/>
+      <c r="Q57" s="181"/>
+      <c r="R57" s="181"/>
+      <c r="S57" s="182"/>
     </row>
     <row r="58" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="O58" s="20" t="s">
         <v>1088</v>
       </c>
-      <c r="P58" s="143"/>
-      <c r="Q58" s="154"/>
+      <c r="P58" s="145"/>
+      <c r="Q58" s="185"/>
       <c r="R58" s="21" t="s">
         <v>2287</v>
       </c>
@@ -11850,10 +11850,10 @@
       <c r="O59" s="20" t="s">
         <v>1089</v>
       </c>
-      <c r="P59" s="157"/>
-      <c r="Q59" s="158"/>
-      <c r="R59" s="158"/>
-      <c r="S59" s="159"/>
+      <c r="P59" s="148"/>
+      <c r="Q59" s="149"/>
+      <c r="R59" s="149"/>
+      <c r="S59" s="150"/>
     </row>
     <row r="60" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
@@ -11861,10 +11861,10 @@
       <c r="O60" s="20" t="s">
         <v>1090</v>
       </c>
-      <c r="P60" s="143"/>
-      <c r="Q60" s="144"/>
-      <c r="R60" s="144"/>
-      <c r="S60" s="145"/>
+      <c r="P60" s="145"/>
+      <c r="Q60" s="146"/>
+      <c r="R60" s="146"/>
+      <c r="S60" s="147"/>
     </row>
     <row r="61" spans="1:19" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
@@ -11883,10 +11883,10 @@
       <c r="O62" s="20" t="s">
         <v>1092</v>
       </c>
-      <c r="P62" s="143"/>
-      <c r="Q62" s="144"/>
-      <c r="R62" s="144"/>
-      <c r="S62" s="145"/>
+      <c r="P62" s="145"/>
+      <c r="Q62" s="146"/>
+      <c r="R62" s="146"/>
+      <c r="S62" s="147"/>
     </row>
     <row r="63" spans="1:19" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -11895,38 +11895,49 @@
     </row>
     <row r="64" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
-      <c r="O64" s="137" t="s">
+      <c r="O64" s="174" t="s">
         <v>1081</v>
       </c>
-      <c r="P64" s="138"/>
-      <c r="Q64" s="138"/>
-      <c r="R64" s="138"/>
-      <c r="S64" s="139"/>
+      <c r="P64" s="175"/>
+      <c r="Q64" s="175"/>
+      <c r="R64" s="175"/>
+      <c r="S64" s="176"/>
     </row>
     <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
-      <c r="O65" s="137" t="s">
+      <c r="O65" s="174" t="s">
         <v>1080</v>
       </c>
-      <c r="P65" s="138"/>
-      <c r="Q65" s="138"/>
-      <c r="R65" s="138"/>
-      <c r="S65" s="139"/>
+      <c r="P65" s="175"/>
+      <c r="Q65" s="175"/>
+      <c r="R65" s="175"/>
+      <c r="S65" s="176"/>
     </row>
     <row r="66" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
-      <c r="O66" s="140" t="s">
+      <c r="O66" s="177" t="s">
         <v>1082</v>
       </c>
-      <c r="P66" s="141"/>
-      <c r="Q66" s="141"/>
-      <c r="R66" s="141"/>
-      <c r="S66" s="142"/>
+      <c r="P66" s="178"/>
+      <c r="Q66" s="178"/>
+      <c r="R66" s="178"/>
+      <c r="S66" s="179"/>
     </row>
     <row r="67" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="27">
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="O64:S64"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="O66:S66"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="O50:S50"/>
+    <mergeCell ref="O57:S57"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P58:Q58"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="O2:R4"/>
     <mergeCell ref="P60:S60"/>
@@ -11943,17 +11954,6 @@
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="O64:S64"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="O66:S66"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="O50:S50"/>
-    <mergeCell ref="O57:S57"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P58:Q58"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14958,7 +14958,7 @@
   <dimension ref="A1:H750"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A719" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E754" sqref="E754"/>
     </sheetView>
   </sheetViews>
@@ -33943,7 +33943,7 @@
       <c r="D748" s="50" t="s">
         <v>1130</v>
       </c>
-      <c r="E748" s="182" t="s">
+      <c r="E748" s="137" t="s">
         <v>1567</v>
       </c>
       <c r="F748" s="53" t="s">
@@ -33957,54 +33957,54 @@
       </c>
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A749" s="183" t="s">
+      <c r="A749" s="138" t="s">
         <v>2556</v>
       </c>
-      <c r="B749" s="184" t="s">
+      <c r="B749" s="139" t="s">
         <v>2432</v>
       </c>
-      <c r="C749" s="183" t="s">
+      <c r="C749" s="138" t="s">
         <v>618</v>
       </c>
-      <c r="D749" s="185" t="s">
+      <c r="D749" s="140" t="s">
         <v>2433</v>
       </c>
-      <c r="E749" s="185" t="s">
+      <c r="E749" s="140" t="s">
         <v>2434</v>
       </c>
-      <c r="F749" s="183" t="s">
+      <c r="F749" s="138" t="s">
         <v>2296</v>
       </c>
-      <c r="G749" s="183" t="s">
+      <c r="G749" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="H749" s="183">
+      <c r="H749" s="138">
         <v>2025</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A750" s="183" t="s">
+      <c r="A750" s="138" t="s">
         <v>2557</v>
       </c>
-      <c r="B750" s="184" t="s">
+      <c r="B750" s="139" t="s">
         <v>2561</v>
       </c>
-      <c r="C750" s="183">
+      <c r="C750" s="138">
         <v>20608170732</v>
       </c>
-      <c r="D750" s="185" t="s">
+      <c r="D750" s="140" t="s">
         <v>2569</v>
       </c>
-      <c r="E750" s="185" t="s">
+      <c r="E750" s="140" t="s">
         <v>2580</v>
       </c>
-      <c r="F750" s="183" t="s">
+      <c r="F750" s="138" t="s">
         <v>2387</v>
       </c>
-      <c r="G750" s="183" t="s">
+      <c r="G750" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="H750" s="183">
+      <c r="H750" s="138">
         <v>2025</v>
       </c>
     </row>
@@ -34022,8 +34022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A51295-D0E5-4ED6-A98F-14ECEFB993C7}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IT Tipo (002).xlsx
+++ b/IT Tipo (002).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pijcl-my.sharepoint.com/personal/fveliz_pij_cl/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{0F198D55-0CF7-4B55-955B-7247A64057F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19C235AC-4A09-497E-8584-726100D9FDA6}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{0F198D55-0CF7-4B55-955B-7247A64057F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{006BF063-0000-4C77-8669-D02A25118969}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3643E92C-1364-4256-AF61-7814676A17A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{3643E92C-1364-4256-AF61-7814676A17A1}"/>
   </bookViews>
   <sheets>
     <sheet name="IT" sheetId="1" r:id="rId1"/>
@@ -9179,31 +9179,11 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9217,42 +9197,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -9264,6 +9208,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9333,6 +9286,53 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10031,7 +10031,7 @@
   </sheetPr>
   <dimension ref="A1:DJ164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScale="72" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="O15" zoomScale="72" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
@@ -10072,21 +10072,21 @@
     <row r="2" spans="1:114" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="M2" s="24"/>
-      <c r="O2" s="168" t="s">
+      <c r="O2" s="148" t="s">
         <v>1241</v>
       </c>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
       <c r="S2" s="34"/>
     </row>
     <row r="3" spans="1:114" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="M3" s="24"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
       <c r="S3" s="4" t="s">
         <v>1070</v>
       </c>
@@ -10095,10 +10095,10 @@
     <row r="4" spans="1:114" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="M4" s="24"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="149"/>
       <c r="S4" s="127"/>
     </row>
     <row r="5" spans="1:114" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10149,8 +10149,8 @@
       <c r="O9" s="17" t="s">
         <v>1080</v>
       </c>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="185"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="171"/>
       <c r="R9" s="20" t="s">
         <v>1083</v>
       </c>
@@ -10162,8 +10162,8 @@
       <c r="O10" s="19" t="s">
         <v>1081</v>
       </c>
-      <c r="P10" s="189"/>
-      <c r="Q10" s="190"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="176"/>
       <c r="R10" s="21" t="s">
         <v>2521</v>
       </c>
@@ -10175,8 +10175,8 @@
       <c r="O11" s="19" t="s">
         <v>1082</v>
       </c>
-      <c r="P11" s="191"/>
-      <c r="Q11" s="185"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="171"/>
       <c r="R11" s="62" t="s">
         <v>2522</v>
       </c>
@@ -10200,8 +10200,8 @@
       <c r="O12" s="123" t="s">
         <v>2523</v>
       </c>
-      <c r="P12" s="192"/>
-      <c r="Q12" s="193"/>
+      <c r="P12" s="178"/>
+      <c r="Q12" s="179"/>
       <c r="R12" s="116" t="s">
         <v>2524</v>
       </c>
@@ -10308,8 +10308,8 @@
       <c r="O13" s="17" t="s">
         <v>2525</v>
       </c>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="149"/>
+      <c r="P13" s="180"/>
+      <c r="Q13" s="181"/>
       <c r="R13" s="18" t="s">
         <v>2528</v>
       </c>
@@ -10321,8 +10321,8 @@
       <c r="O14" s="17" t="s">
         <v>2526</v>
       </c>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="149"/>
+      <c r="P14" s="180"/>
+      <c r="Q14" s="181"/>
       <c r="R14" s="18" t="s">
         <v>2529</v>
       </c>
@@ -10334,8 +10334,8 @@
       <c r="O15" s="128" t="s">
         <v>2527</v>
       </c>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="149"/>
+      <c r="P15" s="180"/>
+      <c r="Q15" s="181"/>
       <c r="R15" s="98"/>
       <c r="S15" s="34"/>
     </row>
@@ -10356,13 +10356,13 @@
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="179" t="s">
+      <c r="O16" s="165" t="s">
         <v>1878</v>
       </c>
-      <c r="P16" s="180"/>
-      <c r="Q16" s="180"/>
-      <c r="R16" s="180"/>
-      <c r="S16" s="181"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="167"/>
       <c r="T16" s="142"/>
       <c r="U16" s="142"/>
       <c r="V16" s="142"/>
@@ -10503,10 +10503,10 @@
       <c r="O17" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="182" t="s">
+      <c r="P17" s="168" t="s">
         <v>1074</v>
       </c>
-      <c r="Q17" s="183"/>
+      <c r="Q17" s="169"/>
       <c r="R17" s="75" t="s">
         <v>8</v>
       </c>
@@ -11620,13 +11620,13 @@
       <c r="L35" s="84"/>
       <c r="M35" s="83"/>
       <c r="N35" s="80"/>
-      <c r="O35" s="176" t="s">
+      <c r="O35" s="162" t="s">
         <v>2290</v>
       </c>
-      <c r="P35" s="177"/>
-      <c r="Q35" s="177"/>
-      <c r="R35" s="177"/>
-      <c r="S35" s="178"/>
+      <c r="P35" s="163"/>
+      <c r="Q35" s="163"/>
+      <c r="R35" s="163"/>
+      <c r="S35" s="164"/>
       <c r="U35" s="145"/>
     </row>
     <row r="36" spans="1:114" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11644,15 +11644,15 @@
       <c r="L36" s="84"/>
       <c r="M36" s="83"/>
       <c r="N36" s="80"/>
-      <c r="O36" s="188" t="s">
+      <c r="O36" s="174" t="s">
         <v>2530</v>
       </c>
-      <c r="P36" s="186"/>
-      <c r="Q36" s="186" t="s">
+      <c r="P36" s="172"/>
+      <c r="Q36" s="172" t="s">
         <v>2531</v>
       </c>
-      <c r="R36" s="186"/>
-      <c r="S36" s="187"/>
+      <c r="R36" s="172"/>
+      <c r="S36" s="173"/>
       <c r="T36" s="145"/>
     </row>
     <row r="37" spans="1:114" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11912,13 +11912,13 @@
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
-      <c r="O48" s="159" t="s">
+      <c r="O48" s="156" t="s">
         <v>1079</v>
       </c>
-      <c r="P48" s="160"/>
-      <c r="Q48" s="160"/>
-      <c r="R48" s="160"/>
-      <c r="S48" s="161"/>
+      <c r="P48" s="157"/>
+      <c r="Q48" s="157"/>
+      <c r="R48" s="157"/>
+      <c r="S48" s="158"/>
       <c r="T48" s="142"/>
       <c r="U48" s="142"/>
       <c r="V48" s="142"/>
@@ -12018,11 +12018,11 @@
     <row r="49" spans="1:114" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="M49" s="24"/>
-      <c r="O49" s="173"/>
-      <c r="P49" s="174"/>
-      <c r="Q49" s="174"/>
-      <c r="R49" s="174"/>
-      <c r="S49" s="175"/>
+      <c r="O49" s="159"/>
+      <c r="P49" s="160"/>
+      <c r="Q49" s="160"/>
+      <c r="R49" s="160"/>
+      <c r="S49" s="161"/>
     </row>
     <row r="50" spans="1:114" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7"/>
@@ -12039,13 +12039,13 @@
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
       <c r="N50" s="25"/>
-      <c r="O50" s="159" t="s">
+      <c r="O50" s="156" t="s">
         <v>2532</v>
       </c>
-      <c r="P50" s="160"/>
-      <c r="Q50" s="160"/>
-      <c r="R50" s="160"/>
-      <c r="S50" s="161"/>
+      <c r="P50" s="157"/>
+      <c r="Q50" s="157"/>
+      <c r="R50" s="157"/>
+      <c r="S50" s="158"/>
       <c r="T50" s="142"/>
       <c r="U50" s="142"/>
       <c r="V50" s="142"/>
@@ -12148,8 +12148,8 @@
       <c r="O51" s="17" t="s">
         <v>1089</v>
       </c>
-      <c r="P51" s="165"/>
-      <c r="Q51" s="166"/>
+      <c r="P51" s="191"/>
+      <c r="Q51" s="192"/>
       <c r="R51" s="18" t="s">
         <v>2518</v>
       </c>
@@ -12161,8 +12161,8 @@
       <c r="O52" s="17" t="s">
         <v>1090</v>
       </c>
-      <c r="P52" s="165"/>
-      <c r="Q52" s="166"/>
+      <c r="P52" s="191"/>
+      <c r="Q52" s="192"/>
       <c r="R52" s="18" t="s">
         <v>2519</v>
       </c>
@@ -12213,8 +12213,8 @@
       <c r="O56" s="17" t="s">
         <v>2286</v>
       </c>
-      <c r="P56" s="165"/>
-      <c r="Q56" s="166"/>
+      <c r="P56" s="191"/>
+      <c r="Q56" s="192"/>
       <c r="R56" s="18" t="s">
         <v>2289</v>
       </c>
@@ -12235,13 +12235,13 @@
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
       <c r="N57" s="25"/>
-      <c r="O57" s="162" t="s">
+      <c r="O57" s="188" t="s">
         <v>1067</v>
       </c>
-      <c r="P57" s="163"/>
-      <c r="Q57" s="163"/>
-      <c r="R57" s="163"/>
-      <c r="S57" s="164"/>
+      <c r="P57" s="189"/>
+      <c r="Q57" s="189"/>
+      <c r="R57" s="189"/>
+      <c r="S57" s="190"/>
       <c r="T57" s="142"/>
       <c r="U57" s="142"/>
       <c r="V57" s="142"/>
@@ -12343,8 +12343,8 @@
       <c r="O58" s="17" t="s">
         <v>1084</v>
       </c>
-      <c r="P58" s="156"/>
-      <c r="Q58" s="167"/>
+      <c r="P58" s="150"/>
+      <c r="Q58" s="193"/>
       <c r="R58" s="18" t="s">
         <v>2283</v>
       </c>
@@ -12356,10 +12356,10 @@
       <c r="O59" s="17" t="s">
         <v>1085</v>
       </c>
-      <c r="P59" s="170"/>
-      <c r="Q59" s="171"/>
-      <c r="R59" s="171"/>
-      <c r="S59" s="172"/>
+      <c r="P59" s="153"/>
+      <c r="Q59" s="154"/>
+      <c r="R59" s="154"/>
+      <c r="S59" s="155"/>
     </row>
     <row r="60" spans="1:114" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
@@ -12367,10 +12367,10 @@
       <c r="O60" s="17" t="s">
         <v>1086</v>
       </c>
-      <c r="P60" s="156"/>
-      <c r="Q60" s="157"/>
-      <c r="R60" s="157"/>
-      <c r="S60" s="158"/>
+      <c r="P60" s="150"/>
+      <c r="Q60" s="151"/>
+      <c r="R60" s="151"/>
+      <c r="S60" s="152"/>
     </row>
     <row r="61" spans="1:114" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
@@ -12389,10 +12389,10 @@
       <c r="O62" s="17" t="s">
         <v>1088</v>
       </c>
-      <c r="P62" s="156"/>
-      <c r="Q62" s="157"/>
-      <c r="R62" s="157"/>
-      <c r="S62" s="158"/>
+      <c r="P62" s="150"/>
+      <c r="Q62" s="151"/>
+      <c r="R62" s="151"/>
+      <c r="S62" s="152"/>
     </row>
     <row r="63" spans="1:114" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
@@ -12401,33 +12401,33 @@
     </row>
     <row r="64" spans="1:114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="O64" s="150" t="s">
+      <c r="O64" s="182" t="s">
         <v>1077</v>
       </c>
-      <c r="P64" s="151"/>
-      <c r="Q64" s="151"/>
-      <c r="R64" s="151"/>
-      <c r="S64" s="152"/>
+      <c r="P64" s="183"/>
+      <c r="Q64" s="183"/>
+      <c r="R64" s="183"/>
+      <c r="S64" s="184"/>
     </row>
     <row r="65" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="O65" s="150" t="s">
+      <c r="O65" s="182" t="s">
         <v>1076</v>
       </c>
-      <c r="P65" s="151"/>
-      <c r="Q65" s="151"/>
-      <c r="R65" s="151"/>
-      <c r="S65" s="152"/>
+      <c r="P65" s="183"/>
+      <c r="Q65" s="183"/>
+      <c r="R65" s="183"/>
+      <c r="S65" s="184"/>
     </row>
     <row r="66" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
-      <c r="O66" s="153" t="s">
+      <c r="O66" s="185" t="s">
         <v>1078</v>
       </c>
-      <c r="P66" s="154"/>
-      <c r="Q66" s="154"/>
-      <c r="R66" s="154"/>
-      <c r="S66" s="155"/>
+      <c r="P66" s="186"/>
+      <c r="Q66" s="186"/>
+      <c r="R66" s="186"/>
+      <c r="S66" s="187"/>
     </row>
     <row r="67" spans="1:19" s="140" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B67" s="145"/>
@@ -14392,6 +14392,17 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="27">
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="O64:S64"/>
+    <mergeCell ref="O65:S65"/>
+    <mergeCell ref="O66:S66"/>
+    <mergeCell ref="P62:S62"/>
+    <mergeCell ref="O50:S50"/>
+    <mergeCell ref="O57:S57"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P58:Q58"/>
     <mergeCell ref="O2:R4"/>
     <mergeCell ref="P60:S60"/>
     <mergeCell ref="P59:S59"/>
@@ -14408,17 +14419,6 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="O64:S64"/>
-    <mergeCell ref="O65:S65"/>
-    <mergeCell ref="O66:S66"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="O50:S50"/>
-    <mergeCell ref="O57:S57"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P58:Q58"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17420,11 +17420,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871BF30F-7BCF-4A5C-80DC-A595CE6A3996}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H750"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B754" sqref="B754"/>
     </sheetView>
   </sheetViews>
@@ -17466,7 +17465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>342</v>
       </c>
@@ -17490,7 +17489,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>336</v>
       </c>
@@ -17516,7 +17515,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="50">
         <v>227318</v>
       </c>
@@ -17542,7 +17541,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="50">
         <v>230895</v>
       </c>
@@ -17568,7 +17567,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>231041</v>
       </c>
@@ -17594,7 +17593,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <v>231045</v>
       </c>
@@ -17620,7 +17619,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="138" t="s">
         <v>2577</v>
       </c>
@@ -17646,7 +17645,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="50">
         <v>231047</v>
       </c>
@@ -17672,7 +17671,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="50">
         <v>231056</v>
       </c>
@@ -17698,7 +17697,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="73" t="s">
         <v>2450</v>
       </c>
@@ -17724,7 +17723,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="73" t="s">
         <v>2449</v>
       </c>
@@ -17750,7 +17749,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="73" t="s">
         <v>1919</v>
       </c>
@@ -17776,7 +17775,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="73" t="s">
         <v>2453</v>
       </c>
@@ -17802,7 +17801,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>2452</v>
       </c>
@@ -17828,7 +17827,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>2451</v>
       </c>
@@ -17854,7 +17853,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>2454</v>
       </c>
@@ -17880,7 +17879,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>2448</v>
       </c>
@@ -17906,7 +17905,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>2455</v>
       </c>
@@ -17932,7 +17931,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>2447</v>
       </c>
@@ -17958,7 +17957,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>2456</v>
       </c>
@@ -17984,7 +17983,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
         <v>2457</v>
       </c>
@@ -18010,7 +18009,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
         <v>2536</v>
       </c>
@@ -18036,7 +18035,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>354</v>
       </c>
@@ -18062,7 +18061,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
         <v>1712</v>
       </c>
@@ -18088,7 +18087,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="50">
         <v>229759</v>
       </c>
@@ -18114,7 +18113,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="50">
         <v>229762</v>
       </c>
@@ -18140,7 +18139,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="50">
         <v>217791</v>
       </c>
@@ -18164,7 +18163,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
         <v>1920</v>
       </c>
@@ -18190,7 +18189,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <v>208372</v>
       </c>
@@ -18214,7 +18213,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="50">
         <v>215539</v>
       </c>
@@ -18238,7 +18237,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="50">
         <v>220309</v>
       </c>
@@ -18262,7 +18261,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="138" t="s">
         <v>2577</v>
       </c>
@@ -18286,7 +18285,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>224</v>
       </c>
@@ -18312,7 +18311,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
         <v>2458</v>
       </c>
@@ -18336,7 +18335,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
         <v>241</v>
       </c>
@@ -18362,7 +18361,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
         <v>1921</v>
       </c>
@@ -18388,7 +18387,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
         <v>1922</v>
       </c>
@@ -18414,7 +18413,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
         <v>1923</v>
       </c>
@@ -18440,7 +18439,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="50">
         <v>215182</v>
       </c>
@@ -18464,7 +18463,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="50">
         <v>225633</v>
       </c>
@@ -18490,7 +18489,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="138" t="s">
         <v>2577</v>
       </c>
@@ -18516,7 +18515,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
         <v>249</v>
       </c>
@@ -18542,7 +18541,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
         <v>266</v>
       </c>
@@ -18566,7 +18565,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
         <v>220167</v>
       </c>
@@ -18590,7 +18589,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="50">
         <v>220307</v>
       </c>
@@ -18614,7 +18613,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="50">
         <v>228533</v>
       </c>
@@ -18638,7 +18637,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>228534</v>
       </c>
@@ -18662,7 +18661,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="138" t="s">
         <v>2577</v>
       </c>
@@ -18686,7 +18685,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="138" t="s">
         <v>2577</v>
       </c>
@@ -18710,7 +18709,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="138" t="s">
         <v>2577</v>
       </c>
@@ -18734,7 +18733,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="138" t="s">
         <v>2577</v>
       </c>
@@ -18758,7 +18757,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="138" t="s">
         <v>2577</v>
       </c>
@@ -18782,7 +18781,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="138" t="s">
         <v>2577</v>
       </c>
@@ -18806,7 +18805,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="50" t="s">
         <v>2537</v>
       </c>
@@ -18832,7 +18831,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="50" t="s">
         <v>246</v>
       </c>
@@ -18858,7 +18857,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
         <v>304</v>
       </c>
@@ -18884,7 +18883,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
         <v>2459</v>
       </c>
@@ -18910,7 +18909,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="50">
         <v>225631</v>
       </c>
@@ -18934,7 +18933,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
         <v>229562</v>
       </c>
@@ -18958,7 +18957,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="50" t="s">
         <v>2462</v>
       </c>
@@ -18984,7 +18983,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="50" t="s">
         <v>2461</v>
       </c>
@@ -19010,7 +19009,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
         <v>2460</v>
       </c>
@@ -19036,7 +19035,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="50" t="s">
         <v>2538</v>
       </c>
@@ -19062,7 +19061,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="50" t="s">
         <v>2539</v>
       </c>
@@ -19088,7 +19087,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="50" t="s">
         <v>1925</v>
       </c>
@@ -19114,7 +19113,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="50" t="s">
         <v>1926</v>
       </c>
@@ -19140,7 +19139,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="50" t="s">
         <v>1927</v>
       </c>
@@ -19166,7 +19165,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="50">
         <v>211840</v>
       </c>
@@ -19192,7 +19191,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="50">
         <v>228635</v>
       </c>
@@ -19218,7 +19217,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="45">
         <v>231416</v>
       </c>
@@ -19244,7 +19243,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="138" t="s">
         <v>2577</v>
       </c>
@@ -19268,7 +19267,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="50">
         <v>217446</v>
       </c>
@@ -19292,7 +19291,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="50">
         <v>217852</v>
       </c>
@@ -19316,7 +19315,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="50">
         <v>217853</v>
       </c>
@@ -19340,7 +19339,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="45" t="s">
         <v>257</v>
       </c>
@@ -19366,7 +19365,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="73" t="s">
         <v>217</v>
       </c>
@@ -19392,7 +19391,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="50">
         <v>229284</v>
       </c>
@@ -19416,7 +19415,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="50" t="s">
         <v>264</v>
       </c>
@@ -19442,7 +19441,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="50" t="s">
         <v>2463</v>
       </c>
@@ -19468,7 +19467,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="50" t="s">
         <v>332</v>
       </c>
@@ -19492,7 +19491,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="50">
         <v>228676</v>
       </c>
@@ -19518,7 +19517,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="50" t="s">
         <v>2482</v>
       </c>
@@ -19542,7 +19541,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="50">
         <v>229758</v>
       </c>
@@ -19568,7 +19567,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="50">
         <v>221723</v>
       </c>
@@ -19592,7 +19591,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="45">
         <v>221730</v>
       </c>
@@ -19616,7 +19615,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="45">
         <v>221731</v>
       </c>
@@ -19640,7 +19639,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="50" t="s">
         <v>346</v>
       </c>
@@ -19666,7 +19665,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="50">
         <v>228660</v>
       </c>
@@ -19692,7 +19691,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="50">
         <v>228661</v>
       </c>
@@ -19718,7 +19717,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="50" t="s">
         <v>1928</v>
       </c>
@@ -19744,7 +19743,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="50">
         <v>229754</v>
       </c>
@@ -19770,7 +19769,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="50">
         <v>231543</v>
       </c>
@@ -19796,7 +19795,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="50">
         <v>227316</v>
       </c>
@@ -19822,7 +19821,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="50" t="s">
         <v>1929</v>
       </c>
@@ -19848,7 +19847,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="138" t="s">
         <v>2577</v>
       </c>
@@ -19872,7 +19871,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="50" t="s">
         <v>236</v>
       </c>
@@ -19896,7 +19895,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="50">
         <v>222883</v>
       </c>
@@ -19922,7 +19921,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="50" t="s">
         <v>1930</v>
       </c>
@@ -19948,7 +19947,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="50" t="s">
         <v>1931</v>
       </c>
@@ -19974,7 +19973,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>2540</v>
       </c>
@@ -20000,7 +19999,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="50" t="s">
         <v>1932</v>
       </c>
@@ -20026,7 +20025,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="50">
         <v>228141</v>
       </c>
@@ -20050,7 +20049,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="45" t="s">
         <v>280</v>
       </c>
@@ -20076,7 +20075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="45">
         <v>231421</v>
       </c>
@@ -20102,7 +20101,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="138" t="s">
         <v>2577</v>
       </c>
@@ -20128,7 +20127,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="50" t="s">
         <v>1933</v>
       </c>
@@ -20154,7 +20153,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="73" t="s">
         <v>1875</v>
       </c>
@@ -20180,7 +20179,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="50" t="s">
         <v>1934</v>
       </c>
@@ -20206,7 +20205,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="50">
         <v>231042</v>
       </c>
@@ -20232,7 +20231,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="50" t="s">
         <v>2464</v>
       </c>
@@ -20258,7 +20257,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="50" t="s">
         <v>1935</v>
       </c>
@@ -20284,7 +20283,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="50" t="s">
         <v>2465</v>
       </c>
@@ -20308,7 +20307,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="50" t="s">
         <v>284</v>
       </c>
@@ -20332,7 +20331,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="50">
         <v>224463</v>
       </c>
@@ -20356,7 +20355,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="50">
         <v>227135</v>
       </c>
@@ -20382,7 +20381,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="50">
         <v>220296</v>
       </c>
@@ -20406,7 +20405,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="138" t="s">
         <v>2577</v>
       </c>
@@ -20430,7 +20429,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="73" t="s">
         <v>24</v>
       </c>
@@ -20454,7 +20453,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="50" t="s">
         <v>312</v>
       </c>
@@ -20478,7 +20477,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="50" t="s">
         <v>1936</v>
       </c>
@@ -20504,7 +20503,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="50">
         <v>225859</v>
       </c>
@@ -20530,7 +20529,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="50" t="s">
         <v>2541</v>
       </c>
@@ -20556,7 +20555,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="50" t="s">
         <v>2466</v>
       </c>
@@ -20582,7 +20581,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="50" t="s">
         <v>1937</v>
       </c>
@@ -20608,7 +20607,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="50" t="s">
         <v>1938</v>
       </c>
@@ -20634,7 +20633,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="50" t="s">
         <v>324</v>
       </c>
@@ -20658,7 +20657,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="50" t="s">
         <v>1939</v>
       </c>
@@ -20684,7 +20683,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="50" t="s">
         <v>1940</v>
       </c>
@@ -20710,7 +20709,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="50" t="s">
         <v>322</v>
       </c>
@@ -20736,7 +20735,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="50" t="s">
         <v>1843</v>
       </c>
@@ -20762,7 +20761,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="50" t="s">
         <v>334</v>
       </c>
@@ -20788,7 +20787,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="50">
         <v>229757</v>
       </c>
@@ -20812,7 +20811,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="138" t="s">
         <v>2577</v>
       </c>
@@ -20838,7 +20837,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="50">
         <v>221732</v>
       </c>
@@ -20864,7 +20863,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="50" t="s">
         <v>1941</v>
       </c>
@@ -20890,7 +20889,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="50">
         <v>211742</v>
       </c>
@@ -20914,7 +20913,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="50">
         <v>227147</v>
       </c>
@@ -20938,7 +20937,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="50">
         <v>222895</v>
       </c>
@@ -20964,7 +20963,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="138" t="s">
         <v>2577</v>
       </c>
@@ -20988,7 +20987,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="50">
         <v>229761</v>
       </c>
@@ -21014,7 +21013,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="50" t="s">
         <v>348</v>
       </c>
@@ -21040,7 +21039,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="50" t="s">
         <v>296</v>
       </c>
@@ -21066,7 +21065,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="50">
         <v>225698</v>
       </c>
@@ -21092,7 +21091,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="50">
         <v>225699</v>
       </c>
@@ -21118,7 +21117,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="50">
         <v>231540</v>
       </c>
@@ -21144,7 +21143,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="50" t="s">
         <v>1835</v>
       </c>
@@ -21170,7 +21169,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="50" t="s">
         <v>1942</v>
       </c>
@@ -21196,7 +21195,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="50">
         <v>228673</v>
       </c>
@@ -21222,7 +21221,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="50">
         <v>229285</v>
       </c>
@@ -21248,7 +21247,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="50">
         <v>226728</v>
       </c>
@@ -21274,7 +21273,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="50" t="s">
         <v>1943</v>
       </c>
@@ -21300,7 +21299,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="50" t="s">
         <v>369</v>
       </c>
@@ -21324,7 +21323,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="45" t="s">
         <v>1944</v>
       </c>
@@ -21350,7 +21349,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="50">
         <v>224323</v>
       </c>
@@ -21376,7 +21375,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="138" t="s">
         <v>2577</v>
       </c>
@@ -21402,7 +21401,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="50">
         <v>224326</v>
       </c>
@@ -21428,7 +21427,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="138" t="s">
         <v>2577</v>
       </c>
@@ -21452,7 +21451,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="50">
         <v>231414</v>
       </c>
@@ -21478,7 +21477,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="50">
         <v>229982</v>
       </c>
@@ -21504,7 +21503,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="45" t="s">
         <v>2467</v>
       </c>
@@ -21528,7 +21527,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="50">
         <v>215028</v>
       </c>
@@ -21552,7 +21551,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="50" t="s">
         <v>1945</v>
       </c>
@@ -21578,7 +21577,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="50">
         <v>225779</v>
       </c>
@@ -21604,7 +21603,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="50">
         <v>229757</v>
       </c>
@@ -21628,7 +21627,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="50" t="s">
         <v>1946</v>
       </c>
@@ -21654,7 +21653,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="50" t="s">
         <v>378</v>
       </c>
@@ -21680,7 +21679,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="50">
         <v>215538</v>
       </c>
@@ -21704,7 +21703,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="50">
         <v>220312</v>
       </c>
@@ -21730,7 +21729,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="50">
         <v>225377</v>
       </c>
@@ -21756,7 +21755,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="50">
         <v>225379</v>
       </c>
@@ -21782,7 +21781,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="50">
         <v>227146</v>
       </c>
@@ -21808,7 +21807,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="50">
         <v>228659</v>
       </c>
@@ -21834,7 +21833,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="50">
         <v>231545</v>
       </c>
@@ -21860,7 +21859,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="50" t="s">
         <v>249</v>
       </c>
@@ -21886,7 +21885,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="50" t="s">
         <v>286</v>
       </c>
@@ -21912,7 +21911,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="50" t="s">
         <v>1822</v>
       </c>
@@ -21936,7 +21935,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="50" t="s">
         <v>1947</v>
       </c>
@@ -21962,7 +21961,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="50" t="s">
         <v>1948</v>
       </c>
@@ -21988,7 +21987,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="50">
         <v>230059</v>
       </c>
@@ -22014,7 +22013,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="50" t="s">
         <v>1820</v>
       </c>
@@ -22040,7 +22039,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="50">
         <v>230038</v>
       </c>
@@ -22066,7 +22065,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="50" t="s">
         <v>292</v>
       </c>
@@ -22092,7 +22091,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="50">
         <v>231054</v>
       </c>
@@ -22118,7 +22117,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="50">
         <v>222899</v>
       </c>
@@ -22142,7 +22141,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="50" t="s">
         <v>326</v>
       </c>
@@ -22168,7 +22167,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="50" t="s">
         <v>255</v>
       </c>
@@ -22194,7 +22193,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="50">
         <v>228675</v>
       </c>
@@ -22218,7 +22217,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="50" t="s">
         <v>1815</v>
       </c>
@@ -22242,7 +22241,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="50">
         <v>215011</v>
       </c>
@@ -22266,7 +22265,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="50" t="s">
         <v>2468</v>
       </c>
@@ -22290,7 +22289,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="50" t="s">
         <v>1949</v>
       </c>
@@ -22316,7 +22315,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="50" t="s">
         <v>1950</v>
       </c>
@@ -22342,7 +22341,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="50">
         <v>215524</v>
       </c>
@@ -22366,7 +22365,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="50">
         <v>229983</v>
       </c>
@@ -22390,7 +22389,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="50" t="s">
         <v>1812</v>
       </c>
@@ -22416,7 +22415,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="50">
         <v>226155</v>
       </c>
@@ -22442,7 +22441,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="50">
         <v>227291</v>
       </c>
@@ -22468,7 +22467,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="50">
         <v>227644</v>
       </c>
@@ -22494,7 +22493,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="50">
         <v>228008</v>
       </c>
@@ -22520,7 +22519,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="45">
         <v>228047</v>
       </c>
@@ -22546,7 +22545,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="50" t="s">
         <v>226</v>
       </c>
@@ -22572,7 +22571,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="50">
         <v>231052</v>
       </c>
@@ -22598,7 +22597,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="50" t="s">
         <v>1809</v>
       </c>
@@ -22624,7 +22623,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="50">
         <v>230036</v>
       </c>
@@ -22650,7 +22649,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="50">
         <v>228566</v>
       </c>
@@ -22676,7 +22675,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="138" t="s">
         <v>2577</v>
       </c>
@@ -22702,7 +22701,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="50">
         <v>230049</v>
       </c>
@@ -22728,7 +22727,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="50" t="s">
         <v>276</v>
       </c>
@@ -22754,7 +22753,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="50" t="s">
         <v>1805</v>
       </c>
@@ -22780,7 +22779,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="50" t="s">
         <v>1803</v>
       </c>
@@ -22806,7 +22805,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="50">
         <v>215518</v>
       </c>
@@ -22832,7 +22831,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="50">
         <v>228674</v>
       </c>
@@ -22858,7 +22857,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="50">
         <v>231419</v>
       </c>
@@ -22884,7 +22883,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="50">
         <v>229756</v>
       </c>
@@ -22910,7 +22909,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="50" t="s">
         <v>1951</v>
       </c>
@@ -22936,7 +22935,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="45">
         <v>228717</v>
       </c>
@@ -22962,7 +22961,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="45" t="s">
         <v>1799</v>
       </c>
@@ -22988,7 +22987,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="50">
         <v>231418</v>
       </c>
@@ -23014,7 +23013,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="50">
         <v>231544</v>
       </c>
@@ -23040,7 +23039,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="45" t="s">
         <v>1952</v>
       </c>
@@ -23066,7 +23065,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="50" t="s">
         <v>1953</v>
       </c>
@@ -23092,7 +23091,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="50">
         <v>229760</v>
       </c>
@@ -23118,7 +23117,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="50">
         <v>228562</v>
       </c>
@@ -23142,7 +23141,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="50" t="s">
         <v>90</v>
       </c>
@@ -23166,7 +23165,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="50">
         <v>221615</v>
       </c>
@@ -23190,7 +23189,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="50">
         <v>215180</v>
       </c>
@@ -23214,7 +23213,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="50" t="s">
         <v>1794</v>
       </c>
@@ -23240,7 +23239,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="50" t="s">
         <v>1792</v>
       </c>
@@ -23266,7 +23265,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="50">
         <v>220290</v>
       </c>
@@ -23292,7 +23291,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="50">
         <v>220297</v>
       </c>
@@ -23318,7 +23317,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="50">
         <v>220298</v>
       </c>
@@ -23342,7 +23341,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="50">
         <v>221352</v>
       </c>
@@ -23368,7 +23367,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="50">
         <v>227469</v>
       </c>
@@ -23394,7 +23393,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="50">
         <v>227645</v>
       </c>
@@ -23420,7 +23419,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="45">
         <v>228541</v>
       </c>
@@ -23446,7 +23445,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="50" t="s">
         <v>29</v>
       </c>
@@ -23472,7 +23471,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="73" t="s">
         <v>1955</v>
       </c>
@@ -23498,7 +23497,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="50" t="s">
         <v>1956</v>
       </c>
@@ -23524,7 +23523,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="50" t="s">
         <v>1957</v>
       </c>
@@ -23550,7 +23549,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="50" t="s">
         <v>1958</v>
       </c>
@@ -23576,7 +23575,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="50" t="s">
         <v>239</v>
       </c>
@@ -23602,7 +23601,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="94" t="s">
         <v>2469</v>
       </c>
@@ -23628,7 +23627,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="50">
         <v>231059</v>
       </c>
@@ -23654,7 +23653,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="50" t="s">
         <v>1787</v>
       </c>
@@ -23680,7 +23679,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="50" t="s">
         <v>1960</v>
       </c>
@@ -23706,7 +23705,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="50" t="s">
         <v>1959</v>
       </c>
@@ -23732,7 +23731,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="50" t="s">
         <v>2470</v>
       </c>
@@ -23758,7 +23757,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="50">
         <v>225338</v>
       </c>
@@ -23784,7 +23783,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="50">
         <v>226949</v>
       </c>
@@ -23810,7 +23809,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="50">
         <v>226950</v>
       </c>
@@ -23836,7 +23835,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="50">
         <v>230058</v>
       </c>
@@ -23862,7 +23861,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="50" t="s">
         <v>1961</v>
       </c>
@@ -23888,7 +23887,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="50" t="s">
         <v>1962</v>
       </c>
@@ -23914,7 +23913,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="50" t="s">
         <v>1963</v>
       </c>
@@ -23940,7 +23939,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="50" t="s">
         <v>1964</v>
       </c>
@@ -23966,7 +23965,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="138" t="s">
         <v>2577</v>
       </c>
@@ -23992,7 +23991,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="50">
         <v>228422</v>
       </c>
@@ -24018,7 +24017,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="138" t="s">
         <v>2577</v>
       </c>
@@ -24044,7 +24043,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="50" t="s">
         <v>1965</v>
       </c>
@@ -24070,7 +24069,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="45" t="s">
         <v>1780</v>
       </c>
@@ -24096,7 +24095,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="45" t="s">
         <v>2471</v>
       </c>
@@ -24120,7 +24119,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="138" t="s">
         <v>2577</v>
       </c>
@@ -24144,7 +24143,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="138" t="s">
         <v>2577</v>
       </c>
@@ -24168,7 +24167,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="50" t="s">
         <v>375</v>
       </c>
@@ -24194,7 +24193,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="50" t="s">
         <v>376</v>
       </c>
@@ -24220,7 +24219,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="50" t="s">
         <v>259</v>
       </c>
@@ -24246,7 +24245,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="45" t="s">
         <v>2472</v>
       </c>
@@ -24272,7 +24271,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="94" t="s">
         <v>306</v>
       </c>
@@ -24298,7 +24297,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="94" t="s">
         <v>1966</v>
       </c>
@@ -24324,7 +24323,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="94" t="s">
         <v>1967</v>
       </c>
@@ -24350,7 +24349,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="73" t="s">
         <v>1968</v>
       </c>
@@ -24376,7 +24375,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="50" t="s">
         <v>1969</v>
       </c>
@@ -24402,7 +24401,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="50" t="s">
         <v>2475</v>
       </c>
@@ -24426,7 +24425,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="45" t="s">
         <v>2473</v>
       </c>
@@ -24450,7 +24449,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="50" t="s">
         <v>2474</v>
       </c>
@@ -24474,7 +24473,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="50" t="s">
         <v>2476</v>
       </c>
@@ -24498,7 +24497,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="70">
         <v>228137</v>
       </c>
@@ -24522,7 +24521,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="50">
         <v>228138</v>
       </c>
@@ -24546,7 +24545,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="73" t="s">
         <v>1970</v>
       </c>
@@ -24572,7 +24571,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="50" t="s">
         <v>1971</v>
       </c>
@@ -24598,7 +24597,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="50" t="s">
         <v>1774</v>
       </c>
@@ -24624,7 +24623,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="50">
         <v>225608</v>
       </c>
@@ -24650,7 +24649,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="50" t="s">
         <v>2477</v>
       </c>
@@ -24676,7 +24675,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="50" t="s">
         <v>2478</v>
       </c>
@@ -24700,7 +24699,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="45">
         <v>227655</v>
       </c>
@@ -24726,7 +24725,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="45" t="s">
         <v>1874</v>
       </c>
@@ -24752,7 +24751,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="50">
         <v>233070</v>
       </c>
@@ -24778,7 +24777,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="50">
         <v>233189</v>
       </c>
@@ -24804,7 +24803,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="50">
         <v>233190</v>
       </c>
@@ -24830,7 +24829,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="50">
         <v>235254</v>
       </c>
@@ -24856,7 +24855,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="50">
         <v>235257</v>
       </c>
@@ -24882,7 +24881,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="138" t="s">
         <v>2577</v>
       </c>
@@ -24906,7 +24905,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="138" t="s">
         <v>2577</v>
       </c>
@@ -24930,7 +24929,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="138" t="s">
         <v>2577</v>
       </c>
@@ -24954,7 +24953,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="138" t="s">
         <v>2577</v>
       </c>
@@ -24978,7 +24977,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="138" t="s">
         <v>2577</v>
       </c>
@@ -25002,7 +25001,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="138" t="s">
         <v>2577</v>
       </c>
@@ -25026,7 +25025,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="50" t="s">
         <v>1972</v>
       </c>
@@ -25052,7 +25051,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="50" t="s">
         <v>1973</v>
       </c>
@@ -25078,7 +25077,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="50" t="s">
         <v>1974</v>
       </c>
@@ -25104,7 +25103,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="50" t="s">
         <v>1975</v>
       </c>
@@ -25130,7 +25129,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="50" t="s">
         <v>2542</v>
       </c>
@@ -25156,7 +25155,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="50" t="s">
         <v>2543</v>
       </c>
@@ -25182,7 +25181,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="138" t="s">
         <v>2577</v>
       </c>
@@ -25206,7 +25205,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="50" t="s">
         <v>1765</v>
       </c>
@@ -25232,7 +25231,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="50" t="s">
         <v>164</v>
       </c>
@@ -25258,7 +25257,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="50" t="s">
         <v>352</v>
       </c>
@@ -25284,7 +25283,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="50" t="s">
         <v>299</v>
       </c>
@@ -25310,7 +25309,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="50" t="s">
         <v>325</v>
       </c>
@@ -25336,7 +25335,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="50" t="s">
         <v>1976</v>
       </c>
@@ -25362,7 +25361,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="50" t="s">
         <v>310</v>
       </c>
@@ -25386,7 +25385,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="50">
         <v>213317</v>
       </c>
@@ -25412,7 +25411,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="50">
         <v>218917</v>
       </c>
@@ -25438,7 +25437,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="45">
         <v>220433</v>
       </c>
@@ -25462,7 +25461,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="50">
         <v>220447</v>
       </c>
@@ -25486,7 +25485,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="50">
         <v>221534</v>
       </c>
@@ -25512,7 +25511,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="45">
         <v>221829</v>
       </c>
@@ -25538,7 +25537,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="50">
         <v>222457</v>
       </c>
@@ -25562,7 +25561,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="45">
         <v>222868</v>
       </c>
@@ -25588,7 +25587,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="50">
         <v>225591</v>
       </c>
@@ -25612,7 +25611,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="50">
         <v>225592</v>
       </c>
@@ -25638,7 +25637,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="50">
         <v>225593</v>
       </c>
@@ -25662,7 +25661,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="50">
         <v>227266</v>
       </c>
@@ -25688,7 +25687,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="50">
         <v>228549</v>
       </c>
@@ -25714,7 +25713,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="50">
         <v>228550</v>
       </c>
@@ -25740,7 +25739,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="50">
         <v>228551</v>
       </c>
@@ -25766,7 +25765,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="50">
         <v>228552</v>
       </c>
@@ -25792,7 +25791,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="50">
         <v>228553</v>
       </c>
@@ -25818,7 +25817,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="50">
         <v>228554</v>
       </c>
@@ -25844,7 +25843,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="50">
         <v>228555</v>
       </c>
@@ -25870,7 +25869,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="50">
         <v>228556</v>
       </c>
@@ -25896,7 +25895,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="50">
         <v>228557</v>
       </c>
@@ -26000,7 +25999,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="50" t="s">
         <v>231</v>
       </c>
@@ -26026,7 +26025,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="50" t="s">
         <v>289</v>
       </c>
@@ -26052,7 +26051,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="50" t="s">
         <v>288</v>
       </c>
@@ -26078,7 +26077,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="50" t="s">
         <v>1761</v>
       </c>
@@ -26182,7 +26181,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="138" t="s">
         <v>2577</v>
       </c>
@@ -26208,7 +26207,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="138" t="s">
         <v>2577</v>
       </c>
@@ -26234,7 +26233,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="50">
         <v>226009</v>
       </c>
@@ -26260,7 +26259,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="50" t="s">
         <v>1758</v>
       </c>
@@ -26286,7 +26285,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="50">
         <v>220303</v>
       </c>
@@ -26312,7 +26311,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="50" t="s">
         <v>1755</v>
       </c>
@@ -26338,7 +26337,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="50" t="s">
         <v>1753</v>
       </c>
@@ -26364,7 +26363,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="50" t="s">
         <v>196</v>
       </c>
@@ -26390,7 +26389,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="50" t="s">
         <v>1981</v>
       </c>
@@ -26416,7 +26415,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="50" t="s">
         <v>1980</v>
       </c>
@@ -26442,7 +26441,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="50">
         <v>215517</v>
       </c>
@@ -26468,7 +26467,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="50">
         <v>215535</v>
       </c>
@@ -26494,7 +26493,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="50">
         <v>221619</v>
       </c>
@@ -26520,7 +26519,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="50">
         <v>235563</v>
       </c>
@@ -26546,7 +26545,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="50" t="s">
         <v>317</v>
       </c>
@@ -26570,7 +26569,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="50">
         <v>229884</v>
       </c>
@@ -26596,7 +26595,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="50" t="s">
         <v>140</v>
       </c>
@@ -26622,7 +26621,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="138" t="s">
         <v>2577</v>
       </c>
@@ -26648,7 +26647,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="50">
         <v>234890</v>
       </c>
@@ -26674,7 +26673,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="50">
         <v>218873</v>
       </c>
@@ -26698,7 +26697,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="138" t="s">
         <v>2577</v>
       </c>
@@ -26722,7 +26721,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="138" t="s">
         <v>2577</v>
       </c>
@@ -26746,7 +26745,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="50">
         <v>217447</v>
       </c>
@@ -26772,7 +26771,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="50">
         <v>230048</v>
       </c>
@@ -26798,7 +26797,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="138" t="s">
         <v>2577</v>
       </c>
@@ -26822,7 +26821,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="50" t="s">
         <v>350</v>
       </c>
@@ -26848,7 +26847,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="50">
         <v>231036</v>
       </c>
@@ -26872,7 +26871,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="50">
         <v>233069</v>
       </c>
@@ -26896,7 +26895,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="50">
         <v>233077</v>
       </c>
@@ -26920,7 +26919,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="50" t="s">
         <v>170</v>
       </c>
@@ -26946,7 +26945,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="50" t="s">
         <v>171</v>
       </c>
@@ -26972,7 +26971,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="50">
         <v>215183</v>
       </c>
@@ -26998,7 +26997,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="50">
         <v>230045</v>
       </c>
@@ -27024,7 +27023,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="50">
         <v>220174</v>
       </c>
@@ -27048,7 +27047,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="50" t="s">
         <v>329</v>
       </c>
@@ -27074,7 +27073,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="50" t="s">
         <v>330</v>
       </c>
@@ -27100,7 +27099,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="50" t="s">
         <v>1982</v>
       </c>
@@ -27126,7 +27125,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="138" t="s">
         <v>2577</v>
       </c>
@@ -27150,7 +27149,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="50" t="s">
         <v>1983</v>
       </c>
@@ -27176,7 +27175,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="50" t="s">
         <v>1740</v>
       </c>
@@ -27202,7 +27201,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="50" t="s">
         <v>1984</v>
       </c>
@@ -27228,7 +27227,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="50">
         <v>230046</v>
       </c>
@@ -27254,7 +27253,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="50" t="s">
         <v>2479</v>
       </c>
@@ -27278,7 +27277,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="50" t="s">
         <v>1737</v>
       </c>
@@ -27304,7 +27303,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="50" t="s">
         <v>343</v>
       </c>
@@ -27330,7 +27329,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="73" t="s">
         <v>1724</v>
       </c>
@@ -27356,7 +27355,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="73" t="s">
         <v>1735</v>
       </c>
@@ -27382,7 +27381,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="73" t="s">
         <v>1736</v>
       </c>
@@ -27408,7 +27407,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="73" t="s">
         <v>1672</v>
       </c>
@@ -27434,7 +27433,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="50" t="s">
         <v>2481</v>
       </c>
@@ -27460,7 +27459,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="50" t="s">
         <v>1985</v>
       </c>
@@ -27486,7 +27485,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="50" t="s">
         <v>2480</v>
       </c>
@@ -27512,7 +27511,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="50" t="s">
         <v>2544</v>
       </c>
@@ -27536,7 +27535,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="50" t="s">
         <v>294</v>
       </c>
@@ -27562,7 +27561,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="50" t="s">
         <v>2545</v>
       </c>
@@ -27586,7 +27585,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="50" t="s">
         <v>294</v>
       </c>
@@ -27612,7 +27611,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="50" t="s">
         <v>244</v>
       </c>
@@ -27638,7 +27637,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="50" t="s">
         <v>243</v>
       </c>
@@ -27664,7 +27663,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="50" t="s">
         <v>149</v>
       </c>
@@ -27690,7 +27689,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="45" t="s">
         <v>1986</v>
       </c>
@@ -27716,7 +27715,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="50">
         <v>231055</v>
       </c>
@@ -27742,7 +27741,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="138" t="s">
         <v>2577</v>
       </c>
@@ -27766,7 +27765,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="50" t="s">
         <v>1987</v>
       </c>
@@ -27792,7 +27791,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="50" t="s">
         <v>1988</v>
       </c>
@@ -27818,7 +27817,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="138" t="s">
         <v>2577</v>
       </c>
@@ -27842,7 +27841,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="50">
         <v>225800</v>
       </c>
@@ -27866,7 +27865,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="50">
         <v>225810</v>
       </c>
@@ -27890,7 +27889,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="50">
         <v>225814</v>
       </c>
@@ -27914,7 +27913,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="50">
         <v>225860</v>
       </c>
@@ -27940,7 +27939,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="73" t="s">
         <v>1989</v>
       </c>
@@ -27966,7 +27965,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="50" t="s">
         <v>1990</v>
       </c>
@@ -27992,7 +27991,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="50" t="s">
         <v>1991</v>
       </c>
@@ -28018,7 +28017,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="50" t="s">
         <v>2483</v>
       </c>
@@ -28044,7 +28043,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="50" t="s">
         <v>1992</v>
       </c>
@@ -28070,7 +28069,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="50" t="s">
         <v>1993</v>
       </c>
@@ -28096,7 +28095,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="50" t="s">
         <v>2484</v>
       </c>
@@ -28120,7 +28119,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="50" t="s">
         <v>1994</v>
       </c>
@@ -28146,7 +28145,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="50" t="s">
         <v>2485</v>
       </c>
@@ -28170,7 +28169,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="50" t="s">
         <v>338</v>
       </c>
@@ -28196,7 +28195,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="50" t="s">
         <v>1995</v>
       </c>
@@ -28222,7 +28221,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="138" t="s">
         <v>2577</v>
       </c>
@@ -28246,7 +28245,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="50">
         <v>212295</v>
       </c>
@@ -28270,7 +28269,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="50">
         <v>221733</v>
       </c>
@@ -28294,7 +28293,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="50">
         <v>222882</v>
       </c>
@@ -28318,7 +28317,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="50">
         <v>222896</v>
       </c>
@@ -28342,7 +28341,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="50">
         <v>222897</v>
       </c>
@@ -28366,7 +28365,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="50">
         <v>222998</v>
       </c>
@@ -28390,7 +28389,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="50">
         <v>224281</v>
       </c>
@@ -28414,7 +28413,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="138" t="s">
         <v>2577</v>
       </c>
@@ -28440,7 +28439,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="73" t="s">
         <v>84</v>
       </c>
@@ -28466,7 +28465,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="50" t="s">
         <v>1996</v>
       </c>
@@ -28492,7 +28491,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="50" t="s">
         <v>374</v>
       </c>
@@ -28518,7 +28517,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="50" t="s">
         <v>1715</v>
       </c>
@@ -28544,7 +28543,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="50">
         <v>229755</v>
       </c>
@@ -28570,7 +28569,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="45" t="s">
         <v>2486</v>
       </c>
@@ -28596,7 +28595,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="61" t="s">
         <v>2487</v>
       </c>
@@ -28622,7 +28621,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="50" t="s">
         <v>375</v>
       </c>
@@ -28648,7 +28647,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="50">
         <v>231058</v>
       </c>
@@ -28672,7 +28671,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="50" t="s">
         <v>1997</v>
       </c>
@@ -28698,7 +28697,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="50" t="s">
         <v>1998</v>
       </c>
@@ -28724,7 +28723,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="50" t="s">
         <v>1999</v>
       </c>
@@ -28750,7 +28749,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="50" t="s">
         <v>2000</v>
       </c>
@@ -28776,7 +28775,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="50" t="s">
         <v>2001</v>
       </c>
@@ -28802,7 +28801,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="50" t="s">
         <v>2002</v>
       </c>
@@ -28828,7 +28827,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="50" t="s">
         <v>1709</v>
       </c>
@@ -28854,7 +28853,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="50" t="s">
         <v>2488</v>
       </c>
@@ -28880,7 +28879,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="45" t="s">
         <v>2005</v>
       </c>
@@ -28906,7 +28905,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="50" t="s">
         <v>2004</v>
       </c>
@@ -28932,7 +28931,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="50" t="s">
         <v>2003</v>
       </c>
@@ -28958,7 +28957,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="50">
         <v>227148</v>
       </c>
@@ -28984,7 +28983,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="45">
         <v>227406</v>
       </c>
@@ -29010,7 +29009,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="50">
         <v>227468</v>
       </c>
@@ -29036,7 +29035,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="50" t="s">
         <v>1705</v>
       </c>
@@ -29062,7 +29061,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="50" t="s">
         <v>1702</v>
       </c>
@@ -29088,7 +29087,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="50" t="s">
         <v>1703</v>
       </c>
@@ -29114,7 +29113,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="50">
         <v>212284</v>
       </c>
@@ -29138,7 +29137,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="50">
         <v>217793</v>
       </c>
@@ -29162,7 +29161,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="138" t="s">
         <v>2577</v>
       </c>
@@ -29188,7 +29187,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="138" t="s">
         <v>2577</v>
       </c>
@@ -29214,7 +29213,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="50" t="s">
         <v>269</v>
       </c>
@@ -29240,7 +29239,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="50" t="s">
         <v>287</v>
       </c>
@@ -29266,7 +29265,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="50" t="s">
         <v>260</v>
       </c>
@@ -29292,7 +29291,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="73" t="s">
         <v>327</v>
       </c>
@@ -29318,7 +29317,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="50" t="s">
         <v>2489</v>
       </c>
@@ -29344,7 +29343,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="50" t="s">
         <v>2490</v>
       </c>
@@ -29370,7 +29369,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="50" t="s">
         <v>2006</v>
       </c>
@@ -29396,7 +29395,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="50">
         <v>215789</v>
       </c>
@@ -29420,7 +29419,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="50">
         <v>219080</v>
       </c>
@@ -29444,7 +29443,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="50" t="s">
         <v>2491</v>
       </c>
@@ -29470,7 +29469,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="50">
         <v>231050</v>
       </c>
@@ -29496,7 +29495,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="50" t="s">
         <v>2492</v>
       </c>
@@ -29522,7 +29521,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="50" t="s">
         <v>2493</v>
       </c>
@@ -29548,7 +29547,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="50" t="s">
         <v>2494</v>
       </c>
@@ -29572,7 +29571,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="50" t="s">
         <v>268</v>
       </c>
@@ -29598,7 +29597,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="50">
         <v>231044</v>
       </c>
@@ -29624,7 +29623,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="50">
         <v>215533</v>
       </c>
@@ -29648,7 +29647,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="50">
         <v>231541</v>
       </c>
@@ -29674,7 +29673,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="50" t="s">
         <v>371</v>
       </c>
@@ -29700,7 +29699,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="50" t="s">
         <v>379</v>
       </c>
@@ -29726,7 +29725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="50" t="s">
         <v>252</v>
       </c>
@@ -29752,7 +29751,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="50" t="s">
         <v>253</v>
       </c>
@@ -29778,7 +29777,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="50" t="s">
         <v>2007</v>
       </c>
@@ -29804,7 +29803,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="50">
         <v>224462</v>
       </c>
@@ -29828,7 +29827,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="138" t="s">
         <v>2577</v>
       </c>
@@ -29852,7 +29851,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="138" t="s">
         <v>2577</v>
       </c>
@@ -29876,7 +29875,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="138" t="s">
         <v>2577</v>
       </c>
@@ -29900,7 +29899,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="50">
         <v>225380</v>
       </c>
@@ -29926,7 +29925,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="50">
         <v>225376</v>
       </c>
@@ -29952,7 +29951,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="50">
         <v>221390</v>
       </c>
@@ -29976,7 +29975,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="50" t="s">
         <v>1684</v>
       </c>
@@ -30002,7 +30001,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="50" t="s">
         <v>1685</v>
       </c>
@@ -30028,7 +30027,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="50" t="s">
         <v>2008</v>
       </c>
@@ -30054,7 +30053,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="42" t="s">
         <v>2009</v>
       </c>
@@ -30078,7 +30077,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="50" t="s">
         <v>357</v>
       </c>
@@ -30104,7 +30103,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="50" t="s">
         <v>358</v>
       </c>
@@ -30130,7 +30129,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="50" t="s">
         <v>344</v>
       </c>
@@ -30156,7 +30155,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="50" t="s">
         <v>345</v>
       </c>
@@ -30182,7 +30181,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="45" t="s">
         <v>359</v>
       </c>
@@ -30208,7 +30207,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="50" t="s">
         <v>2495</v>
       </c>
@@ -30234,7 +30233,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="50" t="s">
         <v>2496</v>
       </c>
@@ -30260,7 +30259,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="50" t="s">
         <v>2497</v>
       </c>
@@ -30286,7 +30285,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="50" t="s">
         <v>2546</v>
       </c>
@@ -30312,7 +30311,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="50" t="s">
         <v>2547</v>
       </c>
@@ -30338,7 +30337,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="50" t="s">
         <v>354</v>
       </c>
@@ -30364,7 +30363,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="50" t="s">
         <v>353</v>
       </c>
@@ -30390,7 +30389,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="50" t="s">
         <v>313</v>
       </c>
@@ -30416,7 +30415,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="50" t="s">
         <v>315</v>
       </c>
@@ -30442,7 +30441,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="50">
         <v>225633</v>
       </c>
@@ -30466,7 +30465,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="50">
         <v>231546</v>
       </c>
@@ -30492,7 +30491,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="50" t="s">
         <v>303</v>
       </c>
@@ -30518,7 +30517,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="50" t="s">
         <v>2010</v>
       </c>
@@ -30544,7 +30543,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="50" t="s">
         <v>2011</v>
       </c>
@@ -30570,7 +30569,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="50" t="s">
         <v>2012</v>
       </c>
@@ -30596,7 +30595,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="45" t="s">
         <v>2013</v>
       </c>
@@ -30622,7 +30621,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="42" t="s">
         <v>1677</v>
       </c>
@@ -30648,7 +30647,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="45" t="s">
         <v>2014</v>
       </c>
@@ -30674,7 +30673,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="45" t="s">
         <v>2015</v>
       </c>
@@ -30700,7 +30699,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="45">
         <v>231049</v>
       </c>
@@ -30726,7 +30725,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="50">
         <v>231051</v>
       </c>
@@ -30752,7 +30751,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="50">
         <v>231060</v>
       </c>
@@ -30778,7 +30777,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="50" t="s">
         <v>2016</v>
       </c>
@@ -30804,7 +30803,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="50" t="s">
         <v>2017</v>
       </c>
@@ -30830,7 +30829,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="50" t="s">
         <v>2018</v>
       </c>
@@ -30856,7 +30855,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="50" t="s">
         <v>2019</v>
       </c>
@@ -30882,7 +30881,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="50" t="s">
         <v>2020</v>
       </c>
@@ -30908,7 +30907,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="50" t="s">
         <v>2021</v>
       </c>
@@ -30934,7 +30933,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="50" t="s">
         <v>1674</v>
       </c>
@@ -30960,7 +30959,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="50" t="s">
         <v>1663</v>
       </c>
@@ -30986,7 +30985,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="50" t="s">
         <v>1664</v>
       </c>
@@ -31012,7 +31011,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="50" t="s">
         <v>1665</v>
       </c>
@@ -31038,7 +31037,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="50" t="s">
         <v>1666</v>
       </c>
@@ -31064,7 +31063,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="50" t="s">
         <v>1667</v>
       </c>
@@ -31090,7 +31089,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="50" t="s">
         <v>1668</v>
       </c>
@@ -31116,7 +31115,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="50" t="s">
         <v>1669</v>
       </c>
@@ -31142,7 +31141,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="50" t="s">
         <v>1670</v>
       </c>
@@ -31168,7 +31167,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="50" t="s">
         <v>1671</v>
       </c>
@@ -31194,7 +31193,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="138" t="s">
         <v>2577</v>
       </c>
@@ -31220,7 +31219,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="50" t="s">
         <v>372</v>
       </c>
@@ -31246,7 +31245,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="50" t="s">
         <v>1659</v>
       </c>
@@ -31272,7 +31271,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="50">
         <v>224404</v>
       </c>
@@ -31298,7 +31297,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="138" t="s">
         <v>2577</v>
       </c>
@@ -31324,7 +31323,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="138" t="s">
         <v>2577</v>
       </c>
@@ -31350,7 +31349,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="50" t="s">
         <v>1655</v>
       </c>
@@ -31376,7 +31375,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="50" t="s">
         <v>1657</v>
       </c>
@@ -31402,7 +31401,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="50">
         <v>231048</v>
       </c>
@@ -31428,7 +31427,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="50" t="s">
         <v>199</v>
       </c>
@@ -31454,7 +31453,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="50" t="s">
         <v>200</v>
       </c>
@@ -31480,7 +31479,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="50" t="s">
         <v>201</v>
       </c>
@@ -31506,7 +31505,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="50" t="s">
         <v>2498</v>
       </c>
@@ -31532,7 +31531,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="50" t="s">
         <v>2548</v>
       </c>
@@ -31558,7 +31557,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="50">
         <v>231542</v>
       </c>
@@ -31584,7 +31583,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="50" t="s">
         <v>2022</v>
       </c>
@@ -31610,7 +31609,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="45" t="s">
         <v>2023</v>
       </c>
@@ -31636,7 +31635,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="50" t="s">
         <v>2549</v>
       </c>
@@ -31662,7 +31661,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="50" t="s">
         <v>2024</v>
       </c>
@@ -31688,7 +31687,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="50">
         <v>235253</v>
       </c>
@@ -31714,7 +31713,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="45" t="s">
         <v>2550</v>
       </c>
@@ -31740,7 +31739,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="50">
         <v>233077</v>
       </c>
@@ -31764,7 +31763,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="50">
         <v>235252</v>
       </c>
@@ -31790,7 +31789,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="50" t="s">
         <v>2503</v>
       </c>
@@ -31816,7 +31815,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="50" t="s">
         <v>2501</v>
       </c>
@@ -31842,7 +31841,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="50" t="s">
         <v>2502</v>
       </c>
@@ -31868,7 +31867,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="45" t="s">
         <v>2500</v>
       </c>
@@ -31894,7 +31893,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="50" t="s">
         <v>2499</v>
       </c>
@@ -31920,7 +31919,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="50" t="s">
         <v>2504</v>
       </c>
@@ -31946,7 +31945,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="50" t="s">
         <v>381</v>
       </c>
@@ -31972,7 +31971,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="45" t="s">
         <v>1651</v>
       </c>
@@ -31998,7 +31997,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="50" t="s">
         <v>1649</v>
       </c>
@@ -32024,7 +32023,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="50">
         <v>228542</v>
       </c>
@@ -32050,7 +32049,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="50">
         <v>231053</v>
       </c>
@@ -32076,7 +32075,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="50" t="s">
         <v>88</v>
       </c>
@@ -32102,7 +32101,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" s="50">
         <v>228980</v>
       </c>
@@ -32126,7 +32125,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" s="50">
         <v>228981</v>
       </c>
@@ -32150,7 +32149,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="50">
         <v>228982</v>
       </c>
@@ -32174,7 +32173,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" s="50">
         <v>228983</v>
       </c>
@@ -32198,7 +32197,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" s="50">
         <v>228984</v>
       </c>
@@ -32222,7 +32221,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="68">
         <v>228985</v>
       </c>
@@ -32246,7 +32245,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="50">
         <v>231420</v>
       </c>
@@ -32272,7 +32271,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="50">
         <v>231538</v>
       </c>
@@ -32298,7 +32297,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="138" t="s">
         <v>2577</v>
       </c>
@@ -32322,7 +32321,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="50" t="s">
         <v>365</v>
       </c>
@@ -32348,7 +32347,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="73" t="s">
         <v>2577</v>
       </c>
@@ -32374,7 +32373,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="97" t="s">
         <v>277</v>
       </c>
@@ -32400,7 +32399,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" s="138" t="s">
         <v>2577</v>
       </c>
@@ -32424,7 +32423,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="69" t="s">
         <v>101</v>
       </c>
@@ -32448,7 +32447,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" s="69" t="s">
         <v>367</v>
       </c>
@@ -32472,7 +32471,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="50">
         <v>229981</v>
       </c>
@@ -32498,7 +32497,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="50">
         <v>230062</v>
       </c>
@@ -32524,7 +32523,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="50" t="s">
         <v>1636</v>
       </c>
@@ -32550,7 +32549,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="50" t="s">
         <v>1638</v>
       </c>
@@ -32576,7 +32575,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="50" t="s">
         <v>1639</v>
       </c>
@@ -32602,7 +32601,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="50" t="s">
         <v>1637</v>
       </c>
@@ -32628,7 +32627,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="50" t="s">
         <v>1924</v>
       </c>
@@ -32654,7 +32653,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="50" t="s">
         <v>2551</v>
       </c>
@@ -32680,7 +32679,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="50" t="s">
         <v>2507</v>
       </c>
@@ -32706,7 +32705,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="50" t="s">
         <v>2505</v>
       </c>
@@ -32732,7 +32731,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="50" t="s">
         <v>2506</v>
       </c>
@@ -32758,7 +32757,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="50" t="s">
         <v>2025</v>
       </c>
@@ -32784,7 +32783,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="50" t="s">
         <v>270</v>
       </c>
@@ -32810,7 +32809,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="138" t="s">
         <v>2577</v>
       </c>
@@ -32834,7 +32833,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="50">
         <v>221726</v>
       </c>
@@ -32858,7 +32857,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="50">
         <v>227470</v>
       </c>
@@ -32882,7 +32881,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="50">
         <v>231057</v>
       </c>
@@ -32908,7 +32907,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="50" t="s">
         <v>143</v>
       </c>
@@ -32934,7 +32933,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="50">
         <v>231422</v>
       </c>
@@ -32960,7 +32959,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="50">
         <v>231417</v>
       </c>
@@ -32986,7 +32985,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="138" t="s">
         <v>2577</v>
       </c>
@@ -33010,7 +33009,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="138" t="s">
         <v>2577</v>
       </c>
@@ -33034,7 +33033,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="138" t="s">
         <v>2577</v>
       </c>
@@ -33058,7 +33057,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="50">
         <v>227317</v>
       </c>
@@ -33084,7 +33083,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="50">
         <v>228696</v>
       </c>
@@ -33110,7 +33109,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="50">
         <v>228716</v>
       </c>
@@ -33136,7 +33135,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="50">
         <v>230037</v>
       </c>
@@ -33162,7 +33161,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" s="50" t="s">
         <v>261</v>
       </c>
@@ -33188,7 +33187,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="50" t="s">
         <v>262</v>
       </c>
@@ -33214,7 +33213,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="50" t="s">
         <v>267</v>
       </c>
@@ -33240,7 +33239,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="50" t="s">
         <v>1871</v>
       </c>
@@ -33266,7 +33265,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="50">
         <v>215522</v>
       </c>
@@ -33292,7 +33291,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" s="45">
         <v>221616</v>
       </c>
@@ -33316,7 +33315,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" s="50">
         <v>226765</v>
       </c>
@@ -33342,7 +33341,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="60">
         <v>227136</v>
       </c>
@@ -33366,7 +33365,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="50">
         <v>227137</v>
       </c>
@@ -33392,7 +33391,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="50">
         <v>228634</v>
       </c>
@@ -33418,7 +33417,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="50">
         <v>228636</v>
       </c>
@@ -33444,7 +33443,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="50">
         <v>228663</v>
       </c>
@@ -33470,7 +33469,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="138" t="s">
         <v>2577</v>
       </c>
@@ -33494,7 +33493,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="50">
         <v>220301</v>
       </c>
@@ -33518,7 +33517,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="50">
         <v>221623</v>
       </c>
@@ -33542,7 +33541,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="50">
         <v>215532</v>
       </c>
@@ -33568,7 +33567,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="138" t="s">
         <v>2577</v>
       </c>
@@ -33594,7 +33593,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="50" t="s">
         <v>1624</v>
       </c>
@@ -33620,7 +33619,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="50" t="s">
         <v>2026</v>
       </c>
@@ -33646,7 +33645,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="50" t="s">
         <v>2027</v>
       </c>
@@ -33672,7 +33671,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="50" t="s">
         <v>282</v>
       </c>
@@ -33698,7 +33697,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="50" t="s">
         <v>340</v>
       </c>
@@ -33724,7 +33723,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="50" t="s">
         <v>278</v>
       </c>
@@ -33750,7 +33749,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="50" t="s">
         <v>339</v>
       </c>
@@ -33776,7 +33775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" s="50" t="s">
         <v>362</v>
       </c>
@@ -33802,7 +33801,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" s="50" t="s">
         <v>361</v>
       </c>
@@ -33828,7 +33827,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" s="50">
         <v>230060</v>
       </c>
@@ -33854,7 +33853,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" s="60">
         <v>230061</v>
       </c>
@@ -33880,7 +33879,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" s="50" t="s">
         <v>274</v>
       </c>
@@ -33906,7 +33905,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" s="50">
         <v>215181</v>
       </c>
@@ -33932,7 +33931,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" s="50">
         <v>231413</v>
       </c>
@@ -33958,7 +33957,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" s="50">
         <v>208487</v>
       </c>
@@ -33984,7 +33983,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" s="50">
         <v>225807</v>
       </c>
@@ -34010,7 +34009,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" s="50">
         <v>225808</v>
       </c>
@@ -34036,7 +34035,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" s="50" t="s">
         <v>1617</v>
       </c>
@@ -34062,7 +34061,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" s="50" t="s">
         <v>356</v>
       </c>
@@ -34088,7 +34087,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" s="50">
         <v>208632</v>
       </c>
@@ -34112,7 +34111,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" s="50" t="s">
         <v>1614</v>
       </c>
@@ -34138,7 +34137,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" s="50" t="s">
         <v>2508</v>
       </c>
@@ -34162,7 +34161,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" s="50" t="s">
         <v>247</v>
       </c>
@@ -34188,7 +34187,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" s="50" t="s">
         <v>2028</v>
       </c>
@@ -34214,7 +34213,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" s="50" t="s">
         <v>301</v>
       </c>
@@ -34240,7 +34239,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" s="50" t="s">
         <v>302</v>
       </c>
@@ -34266,7 +34265,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" s="50">
         <v>208488</v>
       </c>
@@ -34290,7 +34289,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" s="50" t="s">
         <v>2029</v>
       </c>
@@ -34316,7 +34315,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" s="50">
         <v>226157</v>
       </c>
@@ -34340,7 +34339,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" s="50">
         <v>222898</v>
       </c>
@@ -34364,7 +34363,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" s="50" t="s">
         <v>2030</v>
       </c>
@@ -34390,7 +34389,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" s="50">
         <v>226766</v>
       </c>
@@ -34416,7 +34415,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" s="50" t="s">
         <v>272</v>
       </c>
@@ -34442,7 +34441,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" s="50" t="s">
         <v>360</v>
       </c>
@@ -34468,7 +34467,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" s="50">
         <v>226951</v>
       </c>
@@ -34494,7 +34493,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669" s="50" t="s">
         <v>308</v>
       </c>
@@ -34520,7 +34519,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" s="50">
         <v>231415</v>
       </c>
@@ -34544,7 +34543,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671" s="50" t="s">
         <v>2005</v>
       </c>
@@ -34570,7 +34569,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" s="50" t="s">
         <v>2031</v>
       </c>
@@ -34596,7 +34595,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" s="50">
         <v>221324</v>
       </c>
@@ -34622,7 +34621,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="50" t="s">
         <v>290</v>
       </c>
@@ -34648,7 +34647,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" s="50">
         <v>221622</v>
       </c>
@@ -34672,7 +34671,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" s="50" t="s">
         <v>1602</v>
       </c>
@@ -34698,7 +34697,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="50" t="s">
         <v>320</v>
       </c>
@@ -34724,7 +34723,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" s="50" t="s">
         <v>319</v>
       </c>
@@ -34750,7 +34749,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" s="138" t="s">
         <v>2577</v>
       </c>
@@ -34776,7 +34775,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="50">
         <v>197293</v>
       </c>
@@ -34800,7 +34799,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" s="50">
         <v>205717</v>
       </c>
@@ -34824,7 +34823,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="138" t="s">
         <v>2577</v>
       </c>
@@ -34848,7 +34847,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" s="138" t="s">
         <v>2577</v>
       </c>
@@ -34872,7 +34871,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" s="138" t="s">
         <v>2577</v>
       </c>
@@ -34896,7 +34895,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" s="138" t="s">
         <v>2577</v>
       </c>
@@ -34920,7 +34919,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" s="138" t="s">
         <v>2577</v>
       </c>
@@ -34944,7 +34943,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="138" t="s">
         <v>2577</v>
       </c>
@@ -34968,7 +34967,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" s="138" t="s">
         <v>2577</v>
       </c>
@@ -34992,7 +34991,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689" s="50" t="s">
         <v>233</v>
       </c>
@@ -35018,7 +35017,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" s="50" t="s">
         <v>234</v>
       </c>
@@ -35044,7 +35043,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" s="50">
         <v>229286</v>
       </c>
@@ -35070,7 +35069,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" s="138" t="s">
         <v>2577</v>
       </c>
@@ -35092,7 +35091,7 @@
       </c>
       <c r="H692" s="50"/>
     </row>
-    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" s="50" t="s">
         <v>1954</v>
       </c>
@@ -35118,7 +35117,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" s="50" t="s">
         <v>2032</v>
       </c>
@@ -35144,7 +35143,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" s="50" t="s">
         <v>2033</v>
       </c>
@@ -35170,7 +35169,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" s="50" t="s">
         <v>1594</v>
       </c>
@@ -35196,7 +35195,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" s="50">
         <v>220293</v>
       </c>
@@ -35222,7 +35221,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" s="50">
         <v>228564</v>
       </c>
@@ -35248,7 +35247,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699" s="138" t="s">
         <v>2577</v>
       </c>
@@ -35272,7 +35271,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" s="138" t="s">
         <v>2577</v>
       </c>
@@ -35296,7 +35295,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" s="50">
         <v>218889</v>
       </c>
@@ -35322,7 +35321,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" s="50">
         <v>220119</v>
       </c>
@@ -35348,7 +35347,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" s="50">
         <v>220120</v>
       </c>
@@ -35374,7 +35373,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" s="50">
         <v>220177</v>
       </c>
@@ -35400,7 +35399,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" s="50">
         <v>227643</v>
       </c>
@@ -35426,7 +35425,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" s="50" t="s">
         <v>1872</v>
       </c>
@@ -35452,7 +35451,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" s="50">
         <v>221831</v>
       </c>
@@ -35478,7 +35477,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" s="50">
         <v>222999</v>
       </c>
@@ -35504,7 +35503,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" s="50">
         <v>221683</v>
       </c>
@@ -35528,7 +35527,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" s="50" t="s">
         <v>2509</v>
       </c>
@@ -35554,7 +35553,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" s="138" t="s">
         <v>2577</v>
       </c>
@@ -35580,7 +35579,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" s="50">
         <v>221758</v>
       </c>
@@ -35606,7 +35605,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="50" t="s">
         <v>1877</v>
       </c>
@@ -35632,7 +35631,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" s="50" t="s">
         <v>1876</v>
       </c>
@@ -35658,7 +35657,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" s="50" t="s">
         <v>1583</v>
       </c>
@@ -35684,7 +35683,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" s="50">
         <v>221830</v>
       </c>
@@ -35710,7 +35709,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" s="50">
         <v>221832</v>
       </c>
@@ -35736,7 +35735,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" s="50">
         <v>223164</v>
       </c>
@@ -35760,7 +35759,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" s="50">
         <v>223263</v>
       </c>
@@ -35784,7 +35783,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" s="50">
         <v>225828</v>
       </c>
@@ -35810,7 +35809,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" s="50" t="s">
         <v>238</v>
       </c>
@@ -35836,7 +35835,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" s="50">
         <v>224465</v>
       </c>
@@ -35862,7 +35861,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" s="50">
         <v>228440</v>
       </c>
@@ -35888,7 +35887,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" s="50">
         <v>221757</v>
       </c>
@@ -35914,7 +35913,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725" s="50">
         <v>221759</v>
       </c>
@@ -35940,7 +35939,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" s="50">
         <v>225277</v>
       </c>
@@ -35966,7 +35965,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" s="50">
         <v>225754</v>
       </c>
@@ -35992,7 +35991,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" s="50" t="s">
         <v>2034</v>
       </c>
@@ -36018,7 +36017,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="729" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729" s="50">
         <v>228145</v>
       </c>
@@ -36042,7 +36041,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="730" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730" s="50">
         <v>228439</v>
       </c>
@@ -36066,7 +36065,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731" s="50">
         <v>225777</v>
       </c>
@@ -36092,7 +36091,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732" s="50">
         <v>229362</v>
       </c>
@@ -36118,7 +36117,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733" s="50">
         <v>228662</v>
       </c>
@@ -36142,7 +36141,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734" s="50">
         <v>228007</v>
       </c>
@@ -36168,7 +36167,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735" s="50">
         <v>228261</v>
       </c>
@@ -36194,7 +36193,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" s="50">
         <v>227143</v>
       </c>
@@ -36220,7 +36219,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737" s="50">
         <v>228420</v>
       </c>
@@ -36246,7 +36245,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" s="50">
         <v>228421</v>
       </c>
@@ -36272,7 +36271,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" s="50">
         <v>228455</v>
       </c>
@@ -36298,7 +36297,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" s="50">
         <v>231539</v>
       </c>
@@ -36324,7 +36323,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741" s="50">
         <v>229292</v>
       </c>
@@ -36350,7 +36349,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" s="50">
         <v>222486</v>
       </c>
@@ -36376,7 +36375,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" s="50">
         <v>228452</v>
       </c>
@@ -36402,7 +36401,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" s="50">
         <v>228453</v>
       </c>
@@ -36428,7 +36427,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" s="50">
         <v>228454</v>
       </c>
@@ -36454,7 +36453,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" s="50">
         <v>228563</v>
       </c>
@@ -36480,7 +36479,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" s="50">
         <v>228565</v>
       </c>
@@ -36506,7 +36505,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748" s="50">
         <v>228672</v>
       </c>
@@ -36532,7 +36531,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749" s="135" t="s">
         <v>2552</v>
       </c>
@@ -36558,7 +36557,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" s="135" t="s">
         <v>2553</v>
       </c>
@@ -36586,16 +36585,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H750" xr:uid="{871BF30F-7BCF-4A5C-80DC-A595CE6A3996}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Comercial Greenvic S.A"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="H14"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H673">
       <sortCondition ref="H1:H624"/>
     </sortState>
